--- a/YMFHL2020Q1.xlsx
+++ b/YMFHL2020Q1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="流水帳" sheetId="1" r:id="rId1"/>
@@ -1780,23 +1780,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2134,10 +2134,10 @@
       <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="14.25">
-      <c r="A2" s="65">
+      <c r="A2" s="59">
         <v>43830</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>457</v>
       </c>
       <c r="C2" s="54"/>
@@ -2149,7 +2149,7 @@
       <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="12.75">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -2169,12 +2169,12 @@
         <v>169891</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="64" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="12.75">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="29" t="s">
         <v>254</v>
       </c>
@@ -2192,10 +2192,10 @@
         <v>168589</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="60"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="12.75">
-      <c r="A5" s="60"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="29" t="s">
         <v>255</v>
       </c>
@@ -2213,10 +2213,10 @@
         <v>167589</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="60"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:20" ht="12.75">
-      <c r="A6" s="60"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="37" t="s">
         <v>256</v>
       </c>
@@ -2234,10 +2234,10 @@
         <v>167522</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="60"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:20" ht="12.75">
-      <c r="A7" s="60"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="29" t="s">
         <v>257</v>
       </c>
@@ -2255,10 +2255,10 @@
         <v>165927</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="60"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:20" ht="12.75">
-      <c r="A8" s="60"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="29" t="s">
         <v>258</v>
       </c>
@@ -2276,10 +2276,10 @@
         <v>164697</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="60"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:20" ht="12.75">
-      <c r="A9" s="60"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="29" t="s">
         <v>259</v>
       </c>
@@ -2297,10 +2297,10 @@
         <v>163587</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="60"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:20" ht="12.75">
-      <c r="A10" s="60"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="29" t="s">
         <v>260</v>
       </c>
@@ -2318,13 +2318,13 @@
         <v>162497</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="60"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:20" ht="14.25">
       <c r="A11" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="61" t="s">
         <v>459</v>
       </c>
       <c r="D11" s="21"/>
@@ -10092,9 +10092,7 @@
   </sheetPr>
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -13454,9 +13452,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -18741,21 +18737,21 @@
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="66"/>
+      <c r="D1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="G1" s="62" t="s">
+      <c r="E1" s="66"/>
+      <c r="G1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -18775,7 +18771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>17</v>
@@ -19748,7 +19744,7 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -20354,21 +20350,21 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="62" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -20385,7 +20381,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>17</v>
@@ -21349,21 +21345,21 @@
     <col min="8" max="8" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="66"/>
+      <c r="D1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="G1" s="62" t="s">
+      <c r="E1" s="66"/>
+      <c r="G1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -21383,7 +21379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>17</v>
@@ -21582,19 +21578,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -21689,22 +21685,22 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="64" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="C9" s="50" t="s">
@@ -21777,22 +21773,22 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="64" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="64" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="37" t="s">
@@ -21877,19 +21873,19 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -21977,19 +21973,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -22138,22 +22134,22 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="64" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="C11" s="51" t="s">
@@ -22218,22 +22214,22 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="64" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="64" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="37" t="s">

--- a/YMFHL2020Q1.xlsx
+++ b/YMFHL2020Q1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="流水帳" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="現金流量表" sheetId="4" r:id="rId4"/>
     <sheet name="一月收支表" sheetId="10" r:id="rId5"/>
     <sheet name="二月收支表" sheetId="11" r:id="rId6"/>
-    <sheet name="三月收支表" sheetId="12" r:id="rId7"/>
-    <sheet name="現金" sheetId="14" r:id="rId8"/>
+    <sheet name="現金" sheetId="14" r:id="rId7"/>
+    <sheet name="三月收支表" sheetId="12" r:id="rId8"/>
     <sheet name="約當現金" sheetId="15" r:id="rId9"/>
     <sheet name="應付帳款" sheetId="16" r:id="rId10"/>
     <sheet name="應收帳款" sheetId="17" r:id="rId11"/>
@@ -2082,9 +2082,7 @@
   </sheetPr>
   <dimension ref="A1:T871"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -10092,7 +10090,7 @@
   </sheetPr>
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -21960,6 +21958,3242 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="55">
+        <v>43717</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="16">
+        <f>1271+183+436+912+5281</f>
+        <v>8083</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
+        <f>E2</f>
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="55">
+        <v>43717</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="37">
+        <v>676</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G134" si="0">G2+E3-F3</f>
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="55">
+        <v>43717</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1375</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>7384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>436</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
+        <v>912</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>486</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="37">
+        <v>600</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="37">
+        <v>69143</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>75293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5293</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>8850</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>61150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>41150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>23400</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1258</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>5281</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="55">
+        <v>43725</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="37">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="55">
+        <v>43725</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>6340</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="55">
+        <v>43725</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="37">
+        <v>200</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="0"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="55">
+        <v>43732</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="37">
+        <v>10925</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="0"/>
+        <v>11912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="55">
+        <v>43732</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="37">
+        <v>6056</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="55">
+        <v>43732</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>200</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="0"/>
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="55">
+        <v>43733</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1785</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="0"/>
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75">
+      <c r="A25" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <v>1200</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>200</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0</v>
+      </c>
+      <c r="F27" s="37">
+        <v>200</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0</v>
+      </c>
+      <c r="F28" s="37">
+        <v>200</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25">
+      <c r="A29" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
+        <v>200</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25">
+      <c r="A30" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37">
+        <v>200</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25">
+      <c r="A31" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37">
+        <v>200</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="0"/>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75">
+      <c r="A32" s="55">
+        <v>43740</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="37">
+        <v>1690</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="0"/>
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75">
+      <c r="A33" s="55">
+        <v>43740</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0</v>
+      </c>
+      <c r="F33" s="37">
+        <v>1690</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="0"/>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
+      <c r="A34" s="55">
+        <v>43745</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="37">
+        <v>200</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="0"/>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75">
+      <c r="A35" s="55">
+        <v>43746</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
+        <v>1410</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75">
+      <c r="A36" s="55">
+        <v>43752</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="0"/>
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75">
+      <c r="A37" s="55">
+        <v>43753</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75">
+      <c r="A38" s="55">
+        <v>43756</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
+        <v>200</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75">
+      <c r="A39" s="55">
+        <v>43757</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E39" s="37">
+        <v>200</v>
+      </c>
+      <c r="F39" s="37">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="55">
+        <v>43757</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
+        <v>200</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75">
+      <c r="A41" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="37">
+        <v>15107</v>
+      </c>
+      <c r="F41" s="37">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="0"/>
+        <v>15168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75">
+      <c r="A42" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="37">
+        <v>0</v>
+      </c>
+      <c r="F42" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" si="0"/>
+        <v>14168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75">
+      <c r="A43" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="37">
+        <v>2670</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" si="0"/>
+        <v>11498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75">
+      <c r="A44" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0</v>
+      </c>
+      <c r="F44" s="37">
+        <v>2890</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="0"/>
+        <v>8608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75">
+      <c r="A45" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="37">
+        <v>0</v>
+      </c>
+      <c r="F45" s="37">
+        <v>680</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="0"/>
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75">
+      <c r="A46" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" s="37">
+        <v>0</v>
+      </c>
+      <c r="F46" s="37">
+        <v>3235</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" si="0"/>
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.75">
+      <c r="A47" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" s="37">
+        <v>0</v>
+      </c>
+      <c r="F47" s="37">
+        <v>35</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="0"/>
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75">
+      <c r="A48" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="37">
+        <v>0</v>
+      </c>
+      <c r="F48" s="37">
+        <v>200</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="0"/>
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75">
+      <c r="A49" s="55">
+        <v>43768</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" s="37">
+        <v>0</v>
+      </c>
+      <c r="F49" s="37">
+        <v>1146</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" si="0"/>
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75">
+      <c r="A50" s="55">
+        <v>43768</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="F50" s="37">
+        <v>240</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" si="0"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75">
+      <c r="A51" s="55">
+        <v>43769</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" s="37">
+        <v>200</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" si="0"/>
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75">
+      <c r="A52" s="55">
+        <v>43774</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+      <c r="F52" s="37">
+        <v>800</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" si="0"/>
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75">
+      <c r="A53" s="55">
+        <v>43774</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0</v>
+      </c>
+      <c r="F53" s="37">
+        <v>200</v>
+      </c>
+      <c r="G53" s="21">
+        <f t="shared" si="0"/>
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75">
+      <c r="A54" s="55">
+        <v>43774</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0</v>
+      </c>
+      <c r="F54" s="37">
+        <v>1636</v>
+      </c>
+      <c r="G54" s="21">
+        <f t="shared" si="0"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.75">
+      <c r="A55" s="55">
+        <v>43781</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="0"/>
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.75">
+      <c r="A56" s="55">
+        <v>43781</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0</v>
+      </c>
+      <c r="G56" s="21">
+        <f t="shared" si="0"/>
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.75">
+      <c r="A57" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="37">
+        <v>7000</v>
+      </c>
+      <c r="F57" s="37">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21">
+        <f t="shared" si="0"/>
+        <v>8636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.75">
+      <c r="A58" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="37">
+        <v>0</v>
+      </c>
+      <c r="F58" s="37">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="21">
+        <f t="shared" si="0"/>
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.75">
+      <c r="A59" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="37">
+        <v>0</v>
+      </c>
+      <c r="F59" s="37">
+        <v>1530</v>
+      </c>
+      <c r="G59" s="21">
+        <f t="shared" si="0"/>
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.75">
+      <c r="A60" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="37">
+        <v>300</v>
+      </c>
+      <c r="F60" s="37">
+        <v>0</v>
+      </c>
+      <c r="G60" s="21">
+        <f t="shared" si="0"/>
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75">
+      <c r="A61" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0</v>
+      </c>
+      <c r="F61" s="37">
+        <v>1408</v>
+      </c>
+      <c r="G61" s="21">
+        <f t="shared" si="0"/>
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.75">
+      <c r="A62" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E62" s="37">
+        <v>59</v>
+      </c>
+      <c r="F62" s="37">
+        <v>0</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="0"/>
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.75">
+      <c r="A63" s="55">
+        <v>43783</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="E63" s="37">
+        <v>0</v>
+      </c>
+      <c r="F63" s="37">
+        <v>300</v>
+      </c>
+      <c r="G63" s="21">
+        <f t="shared" si="0"/>
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75">
+      <c r="A64" s="55">
+        <v>43788</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="37">
+        <v>0</v>
+      </c>
+      <c r="F64" s="37">
+        <v>1500</v>
+      </c>
+      <c r="G64" s="21">
+        <f t="shared" si="0"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.75">
+      <c r="A65" s="55">
+        <v>43788</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="37">
+        <v>0</v>
+      </c>
+      <c r="F65" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G65" s="21">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.75">
+      <c r="A66" s="55">
+        <v>43796</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E66" s="37">
+        <v>12802</v>
+      </c>
+      <c r="F66" s="37">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
+        <f t="shared" si="0"/>
+        <v>13059</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.75">
+      <c r="A67" s="55">
+        <v>43796</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="37">
+        <v>0</v>
+      </c>
+      <c r="F67" s="37">
+        <v>8300</v>
+      </c>
+      <c r="G67" s="21">
+        <f t="shared" si="0"/>
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.75">
+      <c r="A68" s="55">
+        <v>43800</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="37">
+        <v>150</v>
+      </c>
+      <c r="F68" s="37">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21">
+        <f t="shared" si="0"/>
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.75">
+      <c r="A69" s="55">
+        <v>43800</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="37">
+        <v>0</v>
+      </c>
+      <c r="F69" s="37">
+        <v>4860</v>
+      </c>
+      <c r="G69" s="21">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.75">
+      <c r="A70" s="55">
+        <v>43800</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="37">
+        <v>8000</v>
+      </c>
+      <c r="F70" s="37">
+        <v>0</v>
+      </c>
+      <c r="G70" s="21">
+        <f t="shared" si="0"/>
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75">
+      <c r="A71" s="55">
+        <v>43802</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E71" s="37">
+        <v>0</v>
+      </c>
+      <c r="F71" s="37">
+        <v>40</v>
+      </c>
+      <c r="G71" s="21">
+        <f t="shared" si="0"/>
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75">
+      <c r="A72" s="55">
+        <v>43802</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="37">
+        <v>0</v>
+      </c>
+      <c r="F72" s="37">
+        <v>5200</v>
+      </c>
+      <c r="G72" s="21">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.75">
+      <c r="A73" s="55">
+        <v>43807</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="37">
+        <v>0</v>
+      </c>
+      <c r="G73" s="21">
+        <f t="shared" si="0"/>
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.75">
+      <c r="A74" s="55">
+        <v>43807</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="37">
+        <v>0</v>
+      </c>
+      <c r="F74" s="37">
+        <v>3320</v>
+      </c>
+      <c r="G74" s="21">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75">
+      <c r="A75" s="55">
+        <v>43808</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="37">
+        <v>0</v>
+      </c>
+      <c r="F75" s="37">
+        <v>0</v>
+      </c>
+      <c r="G75" s="21">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75">
+      <c r="A76" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E76" s="37">
+        <v>4242</v>
+      </c>
+      <c r="F76" s="37">
+        <v>0</v>
+      </c>
+      <c r="G76" s="21">
+        <f t="shared" si="0"/>
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75">
+      <c r="A77" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="37">
+        <v>0</v>
+      </c>
+      <c r="F77" s="37">
+        <v>243</v>
+      </c>
+      <c r="G77" s="21">
+        <f t="shared" si="0"/>
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.75">
+      <c r="A78" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="37">
+        <v>526</v>
+      </c>
+      <c r="G78" s="21">
+        <f t="shared" si="0"/>
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75">
+      <c r="A79" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" s="37">
+        <v>0</v>
+      </c>
+      <c r="F79" s="37">
+        <v>937</v>
+      </c>
+      <c r="G79" s="21">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75">
+      <c r="A80" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E80" s="37">
+        <v>0</v>
+      </c>
+      <c r="F80" s="37">
+        <v>1144</v>
+      </c>
+      <c r="G80" s="21">
+        <f t="shared" si="0"/>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75">
+      <c r="A81" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="37">
+        <v>0</v>
+      </c>
+      <c r="F81" s="37">
+        <v>624</v>
+      </c>
+      <c r="G81" s="21">
+        <f t="shared" si="0"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75">
+      <c r="A82" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="37">
+        <v>0</v>
+      </c>
+      <c r="F82" s="37">
+        <v>1260</v>
+      </c>
+      <c r="G82" s="21">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75">
+      <c r="A83" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E83" s="37">
+        <v>0</v>
+      </c>
+      <c r="F83" s="37">
+        <v>90</v>
+      </c>
+      <c r="G83" s="21">
+        <f t="shared" si="0"/>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.75">
+      <c r="A84" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="37">
+        <v>0</v>
+      </c>
+      <c r="F84" s="37">
+        <v>15</v>
+      </c>
+      <c r="G84" s="21">
+        <f t="shared" si="0"/>
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75">
+      <c r="A85" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="37">
+        <v>0</v>
+      </c>
+      <c r="F85" s="37">
+        <v>60</v>
+      </c>
+      <c r="G85" s="21">
+        <f t="shared" si="0"/>
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.75">
+      <c r="A86" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E86" s="37">
+        <v>657</v>
+      </c>
+      <c r="F86" s="37">
+        <v>0</v>
+      </c>
+      <c r="G86" s="21">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.75">
+      <c r="A87" s="55">
+        <v>43829</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" s="37">
+        <v>30100</v>
+      </c>
+      <c r="F87" s="37">
+        <v>0</v>
+      </c>
+      <c r="G87" s="21">
+        <f t="shared" si="0"/>
+        <v>30589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75">
+      <c r="A88" s="55">
+        <v>43829</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E88" s="37">
+        <v>0</v>
+      </c>
+      <c r="F88" s="37">
+        <v>16000</v>
+      </c>
+      <c r="G88" s="21">
+        <f t="shared" si="0"/>
+        <v>14589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12.75">
+      <c r="A89" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" s="37">
+        <v>0</v>
+      </c>
+      <c r="F89" s="37">
+        <v>336</v>
+      </c>
+      <c r="G89" s="21">
+        <f t="shared" si="0"/>
+        <v>14253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12.75">
+      <c r="A90" s="55">
+        <v>43829</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="37">
+        <v>0</v>
+      </c>
+      <c r="F90" s="37">
+        <v>9150</v>
+      </c>
+      <c r="G90" s="21">
+        <f t="shared" si="0"/>
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75">
+      <c r="A91" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="37">
+        <v>0</v>
+      </c>
+      <c r="F91" s="37">
+        <v>280</v>
+      </c>
+      <c r="G91" s="21">
+        <f t="shared" si="0"/>
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.75">
+      <c r="A92" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E92" s="37">
+        <v>0</v>
+      </c>
+      <c r="F92" s="37">
+        <v>1458</v>
+      </c>
+      <c r="G92" s="21">
+        <f t="shared" si="0"/>
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12.75">
+      <c r="A93" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="37">
+        <v>0</v>
+      </c>
+      <c r="F93" s="37">
+        <v>494</v>
+      </c>
+      <c r="G93" s="21">
+        <f t="shared" si="0"/>
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.75">
+      <c r="A94" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="37">
+        <v>200</v>
+      </c>
+      <c r="F94" s="37">
+        <v>0</v>
+      </c>
+      <c r="G94" s="21">
+        <f t="shared" si="0"/>
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12.75">
+      <c r="A95" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="37">
+        <v>0</v>
+      </c>
+      <c r="F95" s="37">
+        <v>1005</v>
+      </c>
+      <c r="G95" s="21">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12.75">
+      <c r="A96" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E96" s="37">
+        <v>0</v>
+      </c>
+      <c r="F96" s="37">
+        <v>1302</v>
+      </c>
+      <c r="G96" s="21">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12.75">
+      <c r="A97" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F97" s="37">
+        <v>0</v>
+      </c>
+      <c r="G97" s="21">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75">
+      <c r="A98" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="37">
+        <v>0</v>
+      </c>
+      <c r="F98" s="37">
+        <v>1600</v>
+      </c>
+      <c r="G98" s="21">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75">
+      <c r="A99" s="55">
+        <v>43892</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="37">
+        <v>0</v>
+      </c>
+      <c r="G99" s="21">
+        <f t="shared" si="0"/>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75">
+      <c r="A100" s="55">
+        <v>43892</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" s="37">
+        <v>0</v>
+      </c>
+      <c r="F100" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="21">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75">
+      <c r="A101" s="55">
+        <v>43893</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E101" s="37">
+        <v>0</v>
+      </c>
+      <c r="F101" s="37">
+        <v>67</v>
+      </c>
+      <c r="G101" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75">
+      <c r="A102" s="55">
+        <v>43900</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="37">
+        <v>5000</v>
+      </c>
+      <c r="F102" s="37">
+        <v>0</v>
+      </c>
+      <c r="G102" s="21">
+        <f t="shared" si="0"/>
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.75">
+      <c r="A103" s="55">
+        <v>43900</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103" s="37">
+        <v>0</v>
+      </c>
+      <c r="F103" s="37">
+        <v>5000</v>
+      </c>
+      <c r="G103" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12.75">
+      <c r="A104" s="55">
+        <v>43916</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="37">
+        <v>8399</v>
+      </c>
+      <c r="F104" s="37">
+        <v>0</v>
+      </c>
+      <c r="G104" s="21">
+        <f t="shared" si="0"/>
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12.75">
+      <c r="A105" s="55">
+        <v>43916</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="37">
+        <v>0</v>
+      </c>
+      <c r="F105" s="37">
+        <v>7200</v>
+      </c>
+      <c r="G105" s="21">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12.75">
+      <c r="A106" s="55">
+        <v>43935</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E106" s="37">
+        <v>0</v>
+      </c>
+      <c r="F106" s="37">
+        <v>25</v>
+      </c>
+      <c r="G106" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12.75">
+      <c r="A107" s="55">
+        <v>43937</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" s="37">
+        <v>2000</v>
+      </c>
+      <c r="F107" s="37">
+        <v>0</v>
+      </c>
+      <c r="G107" s="21">
+        <f t="shared" si="0"/>
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12.75">
+      <c r="A108" s="55">
+        <v>43937</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="37">
+        <v>0</v>
+      </c>
+      <c r="F108" s="37">
+        <v>2000</v>
+      </c>
+      <c r="G108" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12.75">
+      <c r="A109" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="37">
+        <v>0</v>
+      </c>
+      <c r="F109" s="37">
+        <v>760</v>
+      </c>
+      <c r="G109" s="21">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12.75">
+      <c r="A110" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E110" s="37">
+        <v>0</v>
+      </c>
+      <c r="F110" s="37">
+        <v>3062</v>
+      </c>
+      <c r="G110" s="21">
+        <f t="shared" si="0"/>
+        <v>-2551</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75">
+      <c r="A111" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E111" s="37">
+        <v>0</v>
+      </c>
+      <c r="F111" s="37">
+        <v>256</v>
+      </c>
+      <c r="G111" s="21">
+        <f t="shared" si="0"/>
+        <v>-2807</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12.75">
+      <c r="A112" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="37">
+        <v>0</v>
+      </c>
+      <c r="F112" s="37">
+        <v>512</v>
+      </c>
+      <c r="G112" s="21">
+        <f t="shared" si="0"/>
+        <v>-3319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="14.25">
+      <c r="A113" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E113" s="37">
+        <v>270</v>
+      </c>
+      <c r="F113" s="37">
+        <v>0</v>
+      </c>
+      <c r="G113" s="21">
+        <f t="shared" si="0"/>
+        <v>-3049</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="14.25">
+      <c r="A114" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" s="37">
+        <v>270</v>
+      </c>
+      <c r="F114" s="37">
+        <v>0</v>
+      </c>
+      <c r="G114" s="21">
+        <f t="shared" si="0"/>
+        <v>-2779</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="14.25">
+      <c r="A115" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E115" s="37">
+        <v>270</v>
+      </c>
+      <c r="F115" s="37">
+        <v>0</v>
+      </c>
+      <c r="G115" s="21">
+        <f t="shared" si="0"/>
+        <v>-2509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14.25">
+      <c r="A116" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116" s="37">
+        <v>256</v>
+      </c>
+      <c r="F116" s="37">
+        <v>0</v>
+      </c>
+      <c r="G116" s="21">
+        <f t="shared" si="0"/>
+        <v>-2253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="14.25">
+      <c r="A117" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117" s="37">
+        <v>256</v>
+      </c>
+      <c r="F117" s="37">
+        <v>0</v>
+      </c>
+      <c r="G117" s="21">
+        <f t="shared" si="0"/>
+        <v>-1997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14.25">
+      <c r="A118" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E118" s="37">
+        <v>256</v>
+      </c>
+      <c r="F118" s="37">
+        <v>0</v>
+      </c>
+      <c r="G118" s="21">
+        <f t="shared" si="0"/>
+        <v>-1741</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="14.25">
+      <c r="A119" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E119" s="37">
+        <v>256</v>
+      </c>
+      <c r="F119" s="37">
+        <v>0</v>
+      </c>
+      <c r="G119" s="21">
+        <f t="shared" si="0"/>
+        <v>-1485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="14.25">
+      <c r="A120" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120" s="37">
+        <v>256</v>
+      </c>
+      <c r="F120" s="37">
+        <v>0</v>
+      </c>
+      <c r="G120" s="21">
+        <f t="shared" si="0"/>
+        <v>-1229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.25">
+      <c r="A121" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="E121" s="37">
+        <v>256</v>
+      </c>
+      <c r="F121" s="37">
+        <v>0</v>
+      </c>
+      <c r="G121" s="21">
+        <f t="shared" si="0"/>
+        <v>-973</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.25">
+      <c r="A122" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" s="37">
+        <v>256</v>
+      </c>
+      <c r="F122" s="37">
+        <v>0</v>
+      </c>
+      <c r="G122" s="21">
+        <f t="shared" si="0"/>
+        <v>-717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.25">
+      <c r="A123" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E123" s="37">
+        <v>256</v>
+      </c>
+      <c r="F123" s="37">
+        <v>0</v>
+      </c>
+      <c r="G123" s="21">
+        <f t="shared" si="0"/>
+        <v>-461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="14.25">
+      <c r="A124" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E124" s="37">
+        <v>256</v>
+      </c>
+      <c r="F124" s="37">
+        <v>0</v>
+      </c>
+      <c r="G124" s="21">
+        <f t="shared" si="0"/>
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="14.25">
+      <c r="A125" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E125" s="37">
+        <v>234</v>
+      </c>
+      <c r="F125" s="37">
+        <v>0</v>
+      </c>
+      <c r="G125" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="14.25">
+      <c r="A126" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="E126" s="37">
+        <v>234</v>
+      </c>
+      <c r="F126" s="37">
+        <v>0</v>
+      </c>
+      <c r="G126" s="21">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="14.25">
+      <c r="A127" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" s="37">
+        <v>234</v>
+      </c>
+      <c r="F127" s="37">
+        <v>0</v>
+      </c>
+      <c r="G127" s="21">
+        <f t="shared" si="0"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.25">
+      <c r="A128" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="E128" s="37">
+        <v>234</v>
+      </c>
+      <c r="F128" s="37">
+        <v>0</v>
+      </c>
+      <c r="G128" s="21">
+        <f t="shared" si="0"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25">
+      <c r="A129" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129" s="37">
+        <v>270</v>
+      </c>
+      <c r="F129" s="37">
+        <v>0</v>
+      </c>
+      <c r="G129" s="21">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12.75">
+      <c r="A130" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E130" s="37">
+        <v>270</v>
+      </c>
+      <c r="F130" s="37">
+        <v>0</v>
+      </c>
+      <c r="G130" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12.75">
+      <c r="A131" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" s="37">
+        <v>3574</v>
+      </c>
+      <c r="F131" s="37">
+        <v>0</v>
+      </c>
+      <c r="G131" s="21">
+        <f t="shared" si="0"/>
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="12.75">
+      <c r="A132" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="37">
+        <v>0</v>
+      </c>
+      <c r="F132" s="37">
+        <v>2000</v>
+      </c>
+      <c r="G132" s="21">
+        <f t="shared" si="0"/>
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="12.75">
+      <c r="A133" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" s="37">
+        <v>0</v>
+      </c>
+      <c r="F133" s="37">
+        <v>574</v>
+      </c>
+      <c r="G133" s="21">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="12.75">
+      <c r="A134" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="37">
+        <v>0</v>
+      </c>
+      <c r="F134" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G134" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22300,3242 +25534,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G134"/>
-  <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="55">
-        <v>43717</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="16">
-        <f>1271+183+436+912+5281</f>
-        <v>8083</v>
-      </c>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
-        <f>E2</f>
-        <v>8083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="55">
-        <v>43717</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="37">
-        <v>676</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <f t="shared" ref="G3:G134" si="0">G2+E3-F3</f>
-        <v>8759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="55">
-        <v>43717</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
-        <v>1375</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="0"/>
-        <v>7384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>436</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="0"/>
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37">
-        <v>912</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="0"/>
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37">
-        <v>486</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="0"/>
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="37">
-        <v>600</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="0"/>
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="37">
-        <v>69143</v>
-      </c>
-      <c r="F9" s="37">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="0"/>
-        <v>75293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>5293</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>8850</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="0"/>
-        <v>61150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>20000</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="0"/>
-        <v>41150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="37">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>23400</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="0"/>
-        <v>17750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>10000</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="0"/>
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1600</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="0"/>
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="37">
-        <v>1258</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="0"/>
-        <v>7408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="37">
-        <v>5281</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="0"/>
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="55">
-        <v>43725</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E18" s="37">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="0"/>
-        <v>7127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="55">
-        <v>43725</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="37">
-        <v>6340</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="0"/>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="55">
-        <v>43725</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="37">
-        <v>200</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="0"/>
-        <v>987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="55">
-        <v>43732</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="37">
-        <v>10925</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="0"/>
-        <v>11912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="55">
-        <v>43732</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0</v>
-      </c>
-      <c r="F22" s="37">
-        <v>6056</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="0"/>
-        <v>5856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="55">
-        <v>43732</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37">
-        <v>200</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="0"/>
-        <v>5656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="55">
-        <v>43733</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0</v>
-      </c>
-      <c r="F24" s="37">
-        <v>1785</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="0"/>
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E25" s="37">
-        <v>0</v>
-      </c>
-      <c r="F25" s="37">
-        <v>1200</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="0"/>
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="37">
-        <v>0</v>
-      </c>
-      <c r="F26" s="37">
-        <v>200</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="0"/>
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E27" s="37">
-        <v>0</v>
-      </c>
-      <c r="F27" s="37">
-        <v>200</v>
-      </c>
-      <c r="G27" s="21">
-        <f t="shared" si="0"/>
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="E28" s="37">
-        <v>0</v>
-      </c>
-      <c r="F28" s="37">
-        <v>200</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="0"/>
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="E29" s="37">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37">
-        <v>200</v>
-      </c>
-      <c r="G29" s="21">
-        <f t="shared" si="0"/>
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="37">
-        <v>0</v>
-      </c>
-      <c r="F30" s="37">
-        <v>200</v>
-      </c>
-      <c r="G30" s="21">
-        <f t="shared" si="0"/>
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="E31" s="37">
-        <v>0</v>
-      </c>
-      <c r="F31" s="37">
-        <v>200</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" si="0"/>
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="55">
-        <v>43740</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="37">
-        <v>1690</v>
-      </c>
-      <c r="F32" s="37">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="0"/>
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="55">
-        <v>43740</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="37">
-        <v>0</v>
-      </c>
-      <c r="F33" s="37">
-        <v>1690</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="0"/>
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="55">
-        <v>43745</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="37">
-        <v>200</v>
-      </c>
-      <c r="F34" s="37">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="0"/>
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="55">
-        <v>43746</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35" s="37">
-        <v>0</v>
-      </c>
-      <c r="F35" s="37">
-        <v>1410</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="55">
-        <v>43752</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E36" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="37">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="0"/>
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="55">
-        <v>43753</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="E37" s="37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="55">
-        <v>43756</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" s="37">
-        <v>0</v>
-      </c>
-      <c r="F38" s="37">
-        <v>200</v>
-      </c>
-      <c r="G38" s="21">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="55">
-        <v>43757</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E39" s="37">
-        <v>200</v>
-      </c>
-      <c r="F39" s="37">
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="55">
-        <v>43757</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="37">
-        <v>0</v>
-      </c>
-      <c r="F40" s="37">
-        <v>200</v>
-      </c>
-      <c r="G40" s="21">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="37">
-        <v>15107</v>
-      </c>
-      <c r="F41" s="37">
-        <v>0</v>
-      </c>
-      <c r="G41" s="21">
-        <f t="shared" si="0"/>
-        <v>15168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="E42" s="37">
-        <v>0</v>
-      </c>
-      <c r="F42" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G42" s="21">
-        <f t="shared" si="0"/>
-        <v>14168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
-        <v>2670</v>
-      </c>
-      <c r="G43" s="21">
-        <f t="shared" si="0"/>
-        <v>11498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E44" s="37">
-        <v>0</v>
-      </c>
-      <c r="F44" s="37">
-        <v>2890</v>
-      </c>
-      <c r="G44" s="21">
-        <f t="shared" si="0"/>
-        <v>8608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="37">
-        <v>0</v>
-      </c>
-      <c r="F45" s="37">
-        <v>680</v>
-      </c>
-      <c r="G45" s="21">
-        <f t="shared" si="0"/>
-        <v>7928</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="37">
-        <v>0</v>
-      </c>
-      <c r="F46" s="37">
-        <v>3235</v>
-      </c>
-      <c r="G46" s="21">
-        <f t="shared" si="0"/>
-        <v>4693</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="37">
-        <v>0</v>
-      </c>
-      <c r="F47" s="37">
-        <v>35</v>
-      </c>
-      <c r="G47" s="21">
-        <f t="shared" si="0"/>
-        <v>4658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="37">
-        <v>0</v>
-      </c>
-      <c r="F48" s="37">
-        <v>200</v>
-      </c>
-      <c r="G48" s="21">
-        <f t="shared" si="0"/>
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.75">
-      <c r="A49" s="55">
-        <v>43768</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E49" s="37">
-        <v>0</v>
-      </c>
-      <c r="F49" s="37">
-        <v>1146</v>
-      </c>
-      <c r="G49" s="21">
-        <f t="shared" si="0"/>
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75">
-      <c r="A50" s="55">
-        <v>43768</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="E50" s="37">
-        <v>0</v>
-      </c>
-      <c r="F50" s="37">
-        <v>240</v>
-      </c>
-      <c r="G50" s="21">
-        <f t="shared" si="0"/>
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75">
-      <c r="A51" s="55">
-        <v>43769</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E51" s="37">
-        <v>200</v>
-      </c>
-      <c r="F51" s="37">
-        <v>0</v>
-      </c>
-      <c r="G51" s="21">
-        <f t="shared" si="0"/>
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.75">
-      <c r="A52" s="55">
-        <v>43774</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" s="37">
-        <v>0</v>
-      </c>
-      <c r="F52" s="37">
-        <v>800</v>
-      </c>
-      <c r="G52" s="21">
-        <f t="shared" si="0"/>
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="12.75">
-      <c r="A53" s="55">
-        <v>43774</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E53" s="37">
-        <v>0</v>
-      </c>
-      <c r="F53" s="37">
-        <v>200</v>
-      </c>
-      <c r="G53" s="21">
-        <f t="shared" si="0"/>
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="12.75">
-      <c r="A54" s="55">
-        <v>43774</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E54" s="37">
-        <v>0</v>
-      </c>
-      <c r="F54" s="37">
-        <v>1636</v>
-      </c>
-      <c r="G54" s="21">
-        <f t="shared" si="0"/>
-        <v>636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="12.75">
-      <c r="A55" s="55">
-        <v>43781</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E55" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F55" s="37">
-        <v>0</v>
-      </c>
-      <c r="G55" s="21">
-        <f t="shared" si="0"/>
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="12.75">
-      <c r="A56" s="55">
-        <v>43781</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="37">
-        <v>0</v>
-      </c>
-      <c r="F56" s="37">
-        <v>0</v>
-      </c>
-      <c r="G56" s="21">
-        <f t="shared" si="0"/>
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="12.75">
-      <c r="A57" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E57" s="37">
-        <v>7000</v>
-      </c>
-      <c r="F57" s="37">
-        <v>0</v>
-      </c>
-      <c r="G57" s="21">
-        <f t="shared" si="0"/>
-        <v>8636</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="12.75">
-      <c r="A58" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E58" s="37">
-        <v>0</v>
-      </c>
-      <c r="F58" s="37">
-        <v>3000</v>
-      </c>
-      <c r="G58" s="21">
-        <f t="shared" si="0"/>
-        <v>5636</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="12.75">
-      <c r="A59" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" s="37">
-        <v>0</v>
-      </c>
-      <c r="F59" s="37">
-        <v>1530</v>
-      </c>
-      <c r="G59" s="21">
-        <f t="shared" si="0"/>
-        <v>4106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="12.75">
-      <c r="A60" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="37">
-        <v>300</v>
-      </c>
-      <c r="F60" s="37">
-        <v>0</v>
-      </c>
-      <c r="G60" s="21">
-        <f t="shared" si="0"/>
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.75">
-      <c r="A61" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="E61" s="37">
-        <v>0</v>
-      </c>
-      <c r="F61" s="37">
-        <v>1408</v>
-      </c>
-      <c r="G61" s="21">
-        <f t="shared" si="0"/>
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.75">
-      <c r="A62" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="E62" s="37">
-        <v>59</v>
-      </c>
-      <c r="F62" s="37">
-        <v>0</v>
-      </c>
-      <c r="G62" s="21">
-        <f t="shared" si="0"/>
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.75">
-      <c r="A63" s="55">
-        <v>43783</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="E63" s="37">
-        <v>0</v>
-      </c>
-      <c r="F63" s="37">
-        <v>300</v>
-      </c>
-      <c r="G63" s="21">
-        <f t="shared" si="0"/>
-        <v>2757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="12.75">
-      <c r="A64" s="55">
-        <v>43788</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E64" s="37">
-        <v>0</v>
-      </c>
-      <c r="F64" s="37">
-        <v>1500</v>
-      </c>
-      <c r="G64" s="21">
-        <f t="shared" si="0"/>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="12.75">
-      <c r="A65" s="55">
-        <v>43788</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="37">
-        <v>0</v>
-      </c>
-      <c r="F65" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G65" s="21">
-        <f t="shared" si="0"/>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="12.75">
-      <c r="A66" s="55">
-        <v>43796</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" s="37">
-        <v>12802</v>
-      </c>
-      <c r="F66" s="37">
-        <v>0</v>
-      </c>
-      <c r="G66" s="21">
-        <f t="shared" si="0"/>
-        <v>13059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="12.75">
-      <c r="A67" s="55">
-        <v>43796</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E67" s="37">
-        <v>0</v>
-      </c>
-      <c r="F67" s="37">
-        <v>8300</v>
-      </c>
-      <c r="G67" s="21">
-        <f t="shared" si="0"/>
-        <v>4759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="12.75">
-      <c r="A68" s="55">
-        <v>43800</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E68" s="37">
-        <v>150</v>
-      </c>
-      <c r="F68" s="37">
-        <v>0</v>
-      </c>
-      <c r="G68" s="21">
-        <f t="shared" si="0"/>
-        <v>4909</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="12.75">
-      <c r="A69" s="55">
-        <v>43800</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E69" s="37">
-        <v>0</v>
-      </c>
-      <c r="F69" s="37">
-        <v>4860</v>
-      </c>
-      <c r="G69" s="21">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="12.75">
-      <c r="A70" s="55">
-        <v>43800</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="37">
-        <v>8000</v>
-      </c>
-      <c r="F70" s="37">
-        <v>0</v>
-      </c>
-      <c r="G70" s="21">
-        <f t="shared" si="0"/>
-        <v>8049</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="12.75">
-      <c r="A71" s="55">
-        <v>43802</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E71" s="37">
-        <v>0</v>
-      </c>
-      <c r="F71" s="37">
-        <v>40</v>
-      </c>
-      <c r="G71" s="21">
-        <f t="shared" si="0"/>
-        <v>8009</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="12.75">
-      <c r="A72" s="55">
-        <v>43802</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E72" s="37">
-        <v>0</v>
-      </c>
-      <c r="F72" s="37">
-        <v>5200</v>
-      </c>
-      <c r="G72" s="21">
-        <f t="shared" si="0"/>
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="12.75">
-      <c r="A73" s="55">
-        <v>43807</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F73" s="37">
-        <v>0</v>
-      </c>
-      <c r="G73" s="21">
-        <f t="shared" si="0"/>
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.75">
-      <c r="A74" s="55">
-        <v>43807</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E74" s="37">
-        <v>0</v>
-      </c>
-      <c r="F74" s="37">
-        <v>3320</v>
-      </c>
-      <c r="G74" s="21">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="12.75">
-      <c r="A75" s="55">
-        <v>43808</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="37">
-        <v>0</v>
-      </c>
-      <c r="F75" s="37">
-        <v>0</v>
-      </c>
-      <c r="G75" s="21">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.75">
-      <c r="A76" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="E76" s="37">
-        <v>4242</v>
-      </c>
-      <c r="F76" s="37">
-        <v>0</v>
-      </c>
-      <c r="G76" s="21">
-        <f t="shared" si="0"/>
-        <v>4731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.75">
-      <c r="A77" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B77" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E77" s="37">
-        <v>0</v>
-      </c>
-      <c r="F77" s="37">
-        <v>243</v>
-      </c>
-      <c r="G77" s="21">
-        <f t="shared" si="0"/>
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="12.75">
-      <c r="A78" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="37">
-        <v>526</v>
-      </c>
-      <c r="G78" s="21">
-        <f t="shared" si="0"/>
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.75">
-      <c r="A79" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="E79" s="37">
-        <v>0</v>
-      </c>
-      <c r="F79" s="37">
-        <v>937</v>
-      </c>
-      <c r="G79" s="21">
-        <f t="shared" si="0"/>
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="12.75">
-      <c r="A80" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="E80" s="37">
-        <v>0</v>
-      </c>
-      <c r="F80" s="37">
-        <v>1144</v>
-      </c>
-      <c r="G80" s="21">
-        <f t="shared" si="0"/>
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.75">
-      <c r="A81" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="E81" s="37">
-        <v>0</v>
-      </c>
-      <c r="F81" s="37">
-        <v>624</v>
-      </c>
-      <c r="G81" s="21">
-        <f t="shared" si="0"/>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="12.75">
-      <c r="A82" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="E82" s="37">
-        <v>0</v>
-      </c>
-      <c r="F82" s="37">
-        <v>1260</v>
-      </c>
-      <c r="G82" s="21">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="12.75">
-      <c r="A83" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="E83" s="37">
-        <v>0</v>
-      </c>
-      <c r="F83" s="37">
-        <v>90</v>
-      </c>
-      <c r="G83" s="21">
-        <f t="shared" si="0"/>
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="12.75">
-      <c r="A84" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B84" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E84" s="37">
-        <v>0</v>
-      </c>
-      <c r="F84" s="37">
-        <v>15</v>
-      </c>
-      <c r="G84" s="21">
-        <f t="shared" si="0"/>
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="12.75">
-      <c r="A85" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B85" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="E85" s="37">
-        <v>0</v>
-      </c>
-      <c r="F85" s="37">
-        <v>60</v>
-      </c>
-      <c r="G85" s="21">
-        <f t="shared" si="0"/>
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="12.75">
-      <c r="A86" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E86" s="37">
-        <v>657</v>
-      </c>
-      <c r="F86" s="37">
-        <v>0</v>
-      </c>
-      <c r="G86" s="21">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="12.75">
-      <c r="A87" s="55">
-        <v>43829</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="37">
-        <v>30100</v>
-      </c>
-      <c r="F87" s="37">
-        <v>0</v>
-      </c>
-      <c r="G87" s="21">
-        <f t="shared" si="0"/>
-        <v>30589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="12.75">
-      <c r="A88" s="55">
-        <v>43829</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="E88" s="37">
-        <v>0</v>
-      </c>
-      <c r="F88" s="37">
-        <v>16000</v>
-      </c>
-      <c r="G88" s="21">
-        <f t="shared" si="0"/>
-        <v>14589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="12.75">
-      <c r="A89" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E89" s="37">
-        <v>0</v>
-      </c>
-      <c r="F89" s="37">
-        <v>336</v>
-      </c>
-      <c r="G89" s="21">
-        <f t="shared" si="0"/>
-        <v>14253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="12.75">
-      <c r="A90" s="55">
-        <v>43829</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="37">
-        <v>0</v>
-      </c>
-      <c r="F90" s="37">
-        <v>9150</v>
-      </c>
-      <c r="G90" s="21">
-        <f t="shared" si="0"/>
-        <v>5103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="12.75">
-      <c r="A91" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" s="37">
-        <v>0</v>
-      </c>
-      <c r="F91" s="37">
-        <v>280</v>
-      </c>
-      <c r="G91" s="21">
-        <f t="shared" si="0"/>
-        <v>4823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="12.75">
-      <c r="A92" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="E92" s="37">
-        <v>0</v>
-      </c>
-      <c r="F92" s="37">
-        <v>1458</v>
-      </c>
-      <c r="G92" s="21">
-        <f t="shared" si="0"/>
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="12.75">
-      <c r="A93" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="37">
-        <v>0</v>
-      </c>
-      <c r="F93" s="37">
-        <v>494</v>
-      </c>
-      <c r="G93" s="21">
-        <f t="shared" si="0"/>
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="12.75">
-      <c r="A94" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E94" s="37">
-        <v>200</v>
-      </c>
-      <c r="F94" s="37">
-        <v>0</v>
-      </c>
-      <c r="G94" s="21">
-        <f t="shared" si="0"/>
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="12.75">
-      <c r="A95" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E95" s="37">
-        <v>0</v>
-      </c>
-      <c r="F95" s="37">
-        <v>1005</v>
-      </c>
-      <c r="G95" s="21">
-        <f t="shared" si="0"/>
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="12.75">
-      <c r="A96" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="E96" s="37">
-        <v>0</v>
-      </c>
-      <c r="F96" s="37">
-        <v>1302</v>
-      </c>
-      <c r="G96" s="21">
-        <f t="shared" si="0"/>
-        <v>764</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="12.75">
-      <c r="A97" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E97" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F97" s="37">
-        <v>0</v>
-      </c>
-      <c r="G97" s="21">
-        <f t="shared" si="0"/>
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="12.75">
-      <c r="A98" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="E98" s="37">
-        <v>0</v>
-      </c>
-      <c r="F98" s="37">
-        <v>1600</v>
-      </c>
-      <c r="G98" s="21">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="12.75">
-      <c r="A99" s="55">
-        <v>43892</v>
-      </c>
-      <c r="B99" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E99" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F99" s="37">
-        <v>0</v>
-      </c>
-      <c r="G99" s="21">
-        <f t="shared" si="0"/>
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75">
-      <c r="A100" s="55">
-        <v>43892</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E100" s="37">
-        <v>0</v>
-      </c>
-      <c r="F100" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G100" s="21">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="12.75">
-      <c r="A101" s="55">
-        <v>43893</v>
-      </c>
-      <c r="B101" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E101" s="37">
-        <v>0</v>
-      </c>
-      <c r="F101" s="37">
-        <v>67</v>
-      </c>
-      <c r="G101" s="21">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="12.75">
-      <c r="A102" s="55">
-        <v>43900</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E102" s="37">
-        <v>5000</v>
-      </c>
-      <c r="F102" s="37">
-        <v>0</v>
-      </c>
-      <c r="G102" s="21">
-        <f t="shared" si="0"/>
-        <v>5097</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="12.75">
-      <c r="A103" s="55">
-        <v>43900</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E103" s="37">
-        <v>0</v>
-      </c>
-      <c r="F103" s="37">
-        <v>5000</v>
-      </c>
-      <c r="G103" s="21">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="12.75">
-      <c r="A104" s="55">
-        <v>43916</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D104" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E104" s="37">
-        <v>8399</v>
-      </c>
-      <c r="F104" s="37">
-        <v>0</v>
-      </c>
-      <c r="G104" s="21">
-        <f t="shared" si="0"/>
-        <v>8496</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="12.75">
-      <c r="A105" s="55">
-        <v>43916</v>
-      </c>
-      <c r="B105" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D105" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="37">
-        <v>0</v>
-      </c>
-      <c r="F105" s="37">
-        <v>7200</v>
-      </c>
-      <c r="G105" s="21">
-        <f t="shared" si="0"/>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="12.75">
-      <c r="A106" s="55">
-        <v>43935</v>
-      </c>
-      <c r="B106" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E106" s="37">
-        <v>0</v>
-      </c>
-      <c r="F106" s="37">
-        <v>25</v>
-      </c>
-      <c r="G106" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="12.75">
-      <c r="A107" s="55">
-        <v>43937</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E107" s="37">
-        <v>2000</v>
-      </c>
-      <c r="F107" s="37">
-        <v>0</v>
-      </c>
-      <c r="G107" s="21">
-        <f t="shared" si="0"/>
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="12.75">
-      <c r="A108" s="55">
-        <v>43937</v>
-      </c>
-      <c r="B108" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D108" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E108" s="37">
-        <v>0</v>
-      </c>
-      <c r="F108" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G108" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="12.75">
-      <c r="A109" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="B109" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D109" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E109" s="37">
-        <v>0</v>
-      </c>
-      <c r="F109" s="37">
-        <v>760</v>
-      </c>
-      <c r="G109" s="21">
-        <f t="shared" si="0"/>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="12.75">
-      <c r="A110" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E110" s="37">
-        <v>0</v>
-      </c>
-      <c r="F110" s="37">
-        <v>3062</v>
-      </c>
-      <c r="G110" s="21">
-        <f t="shared" si="0"/>
-        <v>-2551</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="12.75">
-      <c r="A111" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E111" s="37">
-        <v>0</v>
-      </c>
-      <c r="F111" s="37">
-        <v>256</v>
-      </c>
-      <c r="G111" s="21">
-        <f t="shared" si="0"/>
-        <v>-2807</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="12.75">
-      <c r="A112" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E112" s="37">
-        <v>0</v>
-      </c>
-      <c r="F112" s="37">
-        <v>512</v>
-      </c>
-      <c r="G112" s="21">
-        <f t="shared" si="0"/>
-        <v>-3319</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="14.25">
-      <c r="A113" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B113" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D113" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="E113" s="37">
-        <v>270</v>
-      </c>
-      <c r="F113" s="37">
-        <v>0</v>
-      </c>
-      <c r="G113" s="21">
-        <f t="shared" si="0"/>
-        <v>-3049</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="14.25">
-      <c r="A114" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B114" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" s="37">
-        <v>270</v>
-      </c>
-      <c r="F114" s="37">
-        <v>0</v>
-      </c>
-      <c r="G114" s="21">
-        <f t="shared" si="0"/>
-        <v>-2779</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="14.25">
-      <c r="A115" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B115" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E115" s="37">
-        <v>270</v>
-      </c>
-      <c r="F115" s="37">
-        <v>0</v>
-      </c>
-      <c r="G115" s="21">
-        <f t="shared" si="0"/>
-        <v>-2509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.25">
-      <c r="A116" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="E116" s="37">
-        <v>256</v>
-      </c>
-      <c r="F116" s="37">
-        <v>0</v>
-      </c>
-      <c r="G116" s="21">
-        <f t="shared" si="0"/>
-        <v>-2253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="14.25">
-      <c r="A117" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B117" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D117" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="E117" s="37">
-        <v>256</v>
-      </c>
-      <c r="F117" s="37">
-        <v>0</v>
-      </c>
-      <c r="G117" s="21">
-        <f t="shared" si="0"/>
-        <v>-1997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="14.25">
-      <c r="A118" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D118" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="E118" s="37">
-        <v>256</v>
-      </c>
-      <c r="F118" s="37">
-        <v>0</v>
-      </c>
-      <c r="G118" s="21">
-        <f t="shared" si="0"/>
-        <v>-1741</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="14.25">
-      <c r="A119" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B119" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="E119" s="37">
-        <v>256</v>
-      </c>
-      <c r="F119" s="37">
-        <v>0</v>
-      </c>
-      <c r="G119" s="21">
-        <f t="shared" si="0"/>
-        <v>-1485</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="14.25">
-      <c r="A120" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B120" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C120" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D120" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="E120" s="37">
-        <v>256</v>
-      </c>
-      <c r="F120" s="37">
-        <v>0</v>
-      </c>
-      <c r="G120" s="21">
-        <f t="shared" si="0"/>
-        <v>-1229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25">
-      <c r="A121" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B121" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D121" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="E121" s="37">
-        <v>256</v>
-      </c>
-      <c r="F121" s="37">
-        <v>0</v>
-      </c>
-      <c r="G121" s="21">
-        <f t="shared" si="0"/>
-        <v>-973</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="14.25">
-      <c r="A122" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B122" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D122" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E122" s="37">
-        <v>256</v>
-      </c>
-      <c r="F122" s="37">
-        <v>0</v>
-      </c>
-      <c r="G122" s="21">
-        <f t="shared" si="0"/>
-        <v>-717</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="14.25">
-      <c r="A123" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B123" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="E123" s="37">
-        <v>256</v>
-      </c>
-      <c r="F123" s="37">
-        <v>0</v>
-      </c>
-      <c r="G123" s="21">
-        <f t="shared" si="0"/>
-        <v>-461</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="14.25">
-      <c r="A124" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D124" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E124" s="37">
-        <v>256</v>
-      </c>
-      <c r="F124" s="37">
-        <v>0</v>
-      </c>
-      <c r="G124" s="21">
-        <f t="shared" si="0"/>
-        <v>-205</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="14.25">
-      <c r="A125" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B125" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D125" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E125" s="37">
-        <v>234</v>
-      </c>
-      <c r="F125" s="37">
-        <v>0</v>
-      </c>
-      <c r="G125" s="21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="14.25">
-      <c r="A126" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B126" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D126" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="E126" s="37">
-        <v>234</v>
-      </c>
-      <c r="F126" s="37">
-        <v>0</v>
-      </c>
-      <c r="G126" s="21">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="14.25">
-      <c r="A127" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B127" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D127" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="E127" s="37">
-        <v>234</v>
-      </c>
-      <c r="F127" s="37">
-        <v>0</v>
-      </c>
-      <c r="G127" s="21">
-        <f t="shared" si="0"/>
-        <v>497</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="14.25">
-      <c r="A128" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D128" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="E128" s="37">
-        <v>234</v>
-      </c>
-      <c r="F128" s="37">
-        <v>0</v>
-      </c>
-      <c r="G128" s="21">
-        <f t="shared" si="0"/>
-        <v>731</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="14.25">
-      <c r="A129" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B129" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D129" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="E129" s="37">
-        <v>270</v>
-      </c>
-      <c r="F129" s="37">
-        <v>0</v>
-      </c>
-      <c r="G129" s="21">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="12.75">
-      <c r="A130" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B130" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D130" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="E130" s="37">
-        <v>270</v>
-      </c>
-      <c r="F130" s="37">
-        <v>0</v>
-      </c>
-      <c r="G130" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="12.75">
-      <c r="A131" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B131" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E131" s="37">
-        <v>3574</v>
-      </c>
-      <c r="F131" s="37">
-        <v>0</v>
-      </c>
-      <c r="G131" s="21">
-        <f t="shared" si="0"/>
-        <v>4845</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="12.75">
-      <c r="A132" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B132" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E132" s="37">
-        <v>0</v>
-      </c>
-      <c r="F132" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G132" s="21">
-        <f t="shared" si="0"/>
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="12.75">
-      <c r="A133" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C133" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D133" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="E133" s="37">
-        <v>0</v>
-      </c>
-      <c r="F133" s="37">
-        <v>574</v>
-      </c>
-      <c r="G133" s="21">
-        <f t="shared" si="0"/>
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="12.75">
-      <c r="A134" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B134" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E134" s="37">
-        <v>0</v>
-      </c>
-      <c r="F134" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G134" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -25543,9 +25541,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:P1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/YMFHL2020Q1.xlsx
+++ b/YMFHL2020Q1.xlsx
@@ -18,8 +18,8 @@
     <sheet name="現金流量表" sheetId="4" r:id="rId4"/>
     <sheet name="一月收支表" sheetId="10" r:id="rId5"/>
     <sheet name="二月收支表" sheetId="11" r:id="rId6"/>
-    <sheet name="現金" sheetId="14" r:id="rId7"/>
-    <sheet name="三月收支表" sheetId="12" r:id="rId8"/>
+    <sheet name="三月收支表" sheetId="12" r:id="rId7"/>
+    <sheet name="現金" sheetId="14" r:id="rId8"/>
     <sheet name="約當現金" sheetId="15" r:id="rId9"/>
     <sheet name="應付帳款" sheetId="16" r:id="rId10"/>
     <sheet name="應收帳款" sheetId="17" r:id="rId11"/>
@@ -21958,3242 +21958,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="55">
-        <v>43717</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="16">
-        <f>1271+183+436+912+5281</f>
-        <v>8083</v>
-      </c>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
-        <f>E2</f>
-        <v>8083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="55">
-        <v>43717</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="37">
-        <v>676</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <f t="shared" ref="G3:G134" si="0">G2+E3-F3</f>
-        <v>8759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="55">
-        <v>43717</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
-        <v>1375</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="0"/>
-        <v>7384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>436</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="0"/>
-        <v>6948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37">
-        <v>912</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="0"/>
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37">
-        <v>486</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="0"/>
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="55">
-        <v>43718</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="37">
-        <v>600</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="0"/>
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="37">
-        <v>69143</v>
-      </c>
-      <c r="F9" s="37">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="0"/>
-        <v>75293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>5293</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>8850</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="0"/>
-        <v>61150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>20000</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="0"/>
-        <v>41150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="37">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>23400</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="0"/>
-        <v>17750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>10000</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="0"/>
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1600</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="0"/>
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="37">
-        <v>1258</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="0"/>
-        <v>7408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="55">
-        <v>43719</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="37">
-        <v>5281</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="0"/>
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="55">
-        <v>43725</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E18" s="37">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="0"/>
-        <v>7127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="55">
-        <v>43725</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="37">
-        <v>6340</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="0"/>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="55">
-        <v>43725</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="37">
-        <v>200</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="0"/>
-        <v>987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="55">
-        <v>43732</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="37">
-        <v>10925</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="0"/>
-        <v>11912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="55">
-        <v>43732</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0</v>
-      </c>
-      <c r="F22" s="37">
-        <v>6056</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="0"/>
-        <v>5856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="55">
-        <v>43732</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37">
-        <v>200</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="0"/>
-        <v>5656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="55">
-        <v>43733</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0</v>
-      </c>
-      <c r="F24" s="37">
-        <v>1785</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="0"/>
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E25" s="37">
-        <v>0</v>
-      </c>
-      <c r="F25" s="37">
-        <v>1200</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="0"/>
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="37">
-        <v>0</v>
-      </c>
-      <c r="F26" s="37">
-        <v>200</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="0"/>
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E27" s="37">
-        <v>0</v>
-      </c>
-      <c r="F27" s="37">
-        <v>200</v>
-      </c>
-      <c r="G27" s="21">
-        <f t="shared" si="0"/>
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="E28" s="37">
-        <v>0</v>
-      </c>
-      <c r="F28" s="37">
-        <v>200</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="0"/>
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="E29" s="37">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37">
-        <v>200</v>
-      </c>
-      <c r="G29" s="21">
-        <f t="shared" si="0"/>
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="37">
-        <v>0</v>
-      </c>
-      <c r="F30" s="37">
-        <v>200</v>
-      </c>
-      <c r="G30" s="21">
-        <f t="shared" si="0"/>
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="55">
-        <v>43739</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="E31" s="37">
-        <v>0</v>
-      </c>
-      <c r="F31" s="37">
-        <v>200</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" si="0"/>
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="55">
-        <v>43740</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="37">
-        <v>1690</v>
-      </c>
-      <c r="F32" s="37">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="0"/>
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="55">
-        <v>43740</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="37">
-        <v>0</v>
-      </c>
-      <c r="F33" s="37">
-        <v>1690</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="0"/>
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="55">
-        <v>43745</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="37">
-        <v>200</v>
-      </c>
-      <c r="F34" s="37">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="0"/>
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="55">
-        <v>43746</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35" s="37">
-        <v>0</v>
-      </c>
-      <c r="F35" s="37">
-        <v>1410</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="55">
-        <v>43752</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E36" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="37">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="0"/>
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="55">
-        <v>43753</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="E37" s="37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="55">
-        <v>43756</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" s="37">
-        <v>0</v>
-      </c>
-      <c r="F38" s="37">
-        <v>200</v>
-      </c>
-      <c r="G38" s="21">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="55">
-        <v>43757</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E39" s="37">
-        <v>200</v>
-      </c>
-      <c r="F39" s="37">
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="55">
-        <v>43757</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="37">
-        <v>0</v>
-      </c>
-      <c r="F40" s="37">
-        <v>200</v>
-      </c>
-      <c r="G40" s="21">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="37">
-        <v>15107</v>
-      </c>
-      <c r="F41" s="37">
-        <v>0</v>
-      </c>
-      <c r="G41" s="21">
-        <f t="shared" si="0"/>
-        <v>15168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="E42" s="37">
-        <v>0</v>
-      </c>
-      <c r="F42" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G42" s="21">
-        <f t="shared" si="0"/>
-        <v>14168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
-        <v>2670</v>
-      </c>
-      <c r="G43" s="21">
-        <f t="shared" si="0"/>
-        <v>11498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="55">
-        <v>43766</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E44" s="37">
-        <v>0</v>
-      </c>
-      <c r="F44" s="37">
-        <v>2890</v>
-      </c>
-      <c r="G44" s="21">
-        <f t="shared" si="0"/>
-        <v>8608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="37">
-        <v>0</v>
-      </c>
-      <c r="F45" s="37">
-        <v>680</v>
-      </c>
-      <c r="G45" s="21">
-        <f t="shared" si="0"/>
-        <v>7928</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="37">
-        <v>0</v>
-      </c>
-      <c r="F46" s="37">
-        <v>3235</v>
-      </c>
-      <c r="G46" s="21">
-        <f t="shared" si="0"/>
-        <v>4693</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="37">
-        <v>0</v>
-      </c>
-      <c r="F47" s="37">
-        <v>35</v>
-      </c>
-      <c r="G47" s="21">
-        <f t="shared" si="0"/>
-        <v>4658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="55">
-        <v>43767</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="37">
-        <v>0</v>
-      </c>
-      <c r="F48" s="37">
-        <v>200</v>
-      </c>
-      <c r="G48" s="21">
-        <f t="shared" si="0"/>
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.75">
-      <c r="A49" s="55">
-        <v>43768</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E49" s="37">
-        <v>0</v>
-      </c>
-      <c r="F49" s="37">
-        <v>1146</v>
-      </c>
-      <c r="G49" s="21">
-        <f t="shared" si="0"/>
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75">
-      <c r="A50" s="55">
-        <v>43768</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="E50" s="37">
-        <v>0</v>
-      </c>
-      <c r="F50" s="37">
-        <v>240</v>
-      </c>
-      <c r="G50" s="21">
-        <f t="shared" si="0"/>
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75">
-      <c r="A51" s="55">
-        <v>43769</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E51" s="37">
-        <v>200</v>
-      </c>
-      <c r="F51" s="37">
-        <v>0</v>
-      </c>
-      <c r="G51" s="21">
-        <f t="shared" si="0"/>
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.75">
-      <c r="A52" s="55">
-        <v>43774</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" s="37">
-        <v>0</v>
-      </c>
-      <c r="F52" s="37">
-        <v>800</v>
-      </c>
-      <c r="G52" s="21">
-        <f t="shared" si="0"/>
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="12.75">
-      <c r="A53" s="55">
-        <v>43774</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E53" s="37">
-        <v>0</v>
-      </c>
-      <c r="F53" s="37">
-        <v>200</v>
-      </c>
-      <c r="G53" s="21">
-        <f t="shared" si="0"/>
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="12.75">
-      <c r="A54" s="55">
-        <v>43774</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E54" s="37">
-        <v>0</v>
-      </c>
-      <c r="F54" s="37">
-        <v>1636</v>
-      </c>
-      <c r="G54" s="21">
-        <f t="shared" si="0"/>
-        <v>636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="12.75">
-      <c r="A55" s="55">
-        <v>43781</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E55" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F55" s="37">
-        <v>0</v>
-      </c>
-      <c r="G55" s="21">
-        <f t="shared" si="0"/>
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="12.75">
-      <c r="A56" s="55">
-        <v>43781</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="37">
-        <v>0</v>
-      </c>
-      <c r="F56" s="37">
-        <v>0</v>
-      </c>
-      <c r="G56" s="21">
-        <f t="shared" si="0"/>
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="12.75">
-      <c r="A57" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E57" s="37">
-        <v>7000</v>
-      </c>
-      <c r="F57" s="37">
-        <v>0</v>
-      </c>
-      <c r="G57" s="21">
-        <f t="shared" si="0"/>
-        <v>8636</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="12.75">
-      <c r="A58" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E58" s="37">
-        <v>0</v>
-      </c>
-      <c r="F58" s="37">
-        <v>3000</v>
-      </c>
-      <c r="G58" s="21">
-        <f t="shared" si="0"/>
-        <v>5636</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="12.75">
-      <c r="A59" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" s="37">
-        <v>0</v>
-      </c>
-      <c r="F59" s="37">
-        <v>1530</v>
-      </c>
-      <c r="G59" s="21">
-        <f t="shared" si="0"/>
-        <v>4106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="12.75">
-      <c r="A60" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="37">
-        <v>300</v>
-      </c>
-      <c r="F60" s="37">
-        <v>0</v>
-      </c>
-      <c r="G60" s="21">
-        <f t="shared" si="0"/>
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.75">
-      <c r="A61" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="E61" s="37">
-        <v>0</v>
-      </c>
-      <c r="F61" s="37">
-        <v>1408</v>
-      </c>
-      <c r="G61" s="21">
-        <f t="shared" si="0"/>
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.75">
-      <c r="A62" s="55">
-        <v>43782</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="E62" s="37">
-        <v>59</v>
-      </c>
-      <c r="F62" s="37">
-        <v>0</v>
-      </c>
-      <c r="G62" s="21">
-        <f t="shared" si="0"/>
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.75">
-      <c r="A63" s="55">
-        <v>43783</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="E63" s="37">
-        <v>0</v>
-      </c>
-      <c r="F63" s="37">
-        <v>300</v>
-      </c>
-      <c r="G63" s="21">
-        <f t="shared" si="0"/>
-        <v>2757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="12.75">
-      <c r="A64" s="55">
-        <v>43788</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E64" s="37">
-        <v>0</v>
-      </c>
-      <c r="F64" s="37">
-        <v>1500</v>
-      </c>
-      <c r="G64" s="21">
-        <f t="shared" si="0"/>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="12.75">
-      <c r="A65" s="55">
-        <v>43788</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="37">
-        <v>0</v>
-      </c>
-      <c r="F65" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G65" s="21">
-        <f t="shared" si="0"/>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="12.75">
-      <c r="A66" s="55">
-        <v>43796</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" s="37">
-        <v>12802</v>
-      </c>
-      <c r="F66" s="37">
-        <v>0</v>
-      </c>
-      <c r="G66" s="21">
-        <f t="shared" si="0"/>
-        <v>13059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="12.75">
-      <c r="A67" s="55">
-        <v>43796</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E67" s="37">
-        <v>0</v>
-      </c>
-      <c r="F67" s="37">
-        <v>8300</v>
-      </c>
-      <c r="G67" s="21">
-        <f t="shared" si="0"/>
-        <v>4759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="12.75">
-      <c r="A68" s="55">
-        <v>43800</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E68" s="37">
-        <v>150</v>
-      </c>
-      <c r="F68" s="37">
-        <v>0</v>
-      </c>
-      <c r="G68" s="21">
-        <f t="shared" si="0"/>
-        <v>4909</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="12.75">
-      <c r="A69" s="55">
-        <v>43800</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E69" s="37">
-        <v>0</v>
-      </c>
-      <c r="F69" s="37">
-        <v>4860</v>
-      </c>
-      <c r="G69" s="21">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="12.75">
-      <c r="A70" s="55">
-        <v>43800</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="37">
-        <v>8000</v>
-      </c>
-      <c r="F70" s="37">
-        <v>0</v>
-      </c>
-      <c r="G70" s="21">
-        <f t="shared" si="0"/>
-        <v>8049</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="12.75">
-      <c r="A71" s="55">
-        <v>43802</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E71" s="37">
-        <v>0</v>
-      </c>
-      <c r="F71" s="37">
-        <v>40</v>
-      </c>
-      <c r="G71" s="21">
-        <f t="shared" si="0"/>
-        <v>8009</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="12.75">
-      <c r="A72" s="55">
-        <v>43802</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E72" s="37">
-        <v>0</v>
-      </c>
-      <c r="F72" s="37">
-        <v>5200</v>
-      </c>
-      <c r="G72" s="21">
-        <f t="shared" si="0"/>
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="12.75">
-      <c r="A73" s="55">
-        <v>43807</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F73" s="37">
-        <v>0</v>
-      </c>
-      <c r="G73" s="21">
-        <f t="shared" si="0"/>
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.75">
-      <c r="A74" s="55">
-        <v>43807</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E74" s="37">
-        <v>0</v>
-      </c>
-      <c r="F74" s="37">
-        <v>3320</v>
-      </c>
-      <c r="G74" s="21">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="12.75">
-      <c r="A75" s="55">
-        <v>43808</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="37">
-        <v>0</v>
-      </c>
-      <c r="F75" s="37">
-        <v>0</v>
-      </c>
-      <c r="G75" s="21">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.75">
-      <c r="A76" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="E76" s="37">
-        <v>4242</v>
-      </c>
-      <c r="F76" s="37">
-        <v>0</v>
-      </c>
-      <c r="G76" s="21">
-        <f t="shared" si="0"/>
-        <v>4731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.75">
-      <c r="A77" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B77" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E77" s="37">
-        <v>0</v>
-      </c>
-      <c r="F77" s="37">
-        <v>243</v>
-      </c>
-      <c r="G77" s="21">
-        <f t="shared" si="0"/>
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="12.75">
-      <c r="A78" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="37">
-        <v>526</v>
-      </c>
-      <c r="G78" s="21">
-        <f t="shared" si="0"/>
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.75">
-      <c r="A79" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="E79" s="37">
-        <v>0</v>
-      </c>
-      <c r="F79" s="37">
-        <v>937</v>
-      </c>
-      <c r="G79" s="21">
-        <f t="shared" si="0"/>
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="12.75">
-      <c r="A80" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="E80" s="37">
-        <v>0</v>
-      </c>
-      <c r="F80" s="37">
-        <v>1144</v>
-      </c>
-      <c r="G80" s="21">
-        <f t="shared" si="0"/>
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.75">
-      <c r="A81" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="E81" s="37">
-        <v>0</v>
-      </c>
-      <c r="F81" s="37">
-        <v>624</v>
-      </c>
-      <c r="G81" s="21">
-        <f t="shared" si="0"/>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="12.75">
-      <c r="A82" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="E82" s="37">
-        <v>0</v>
-      </c>
-      <c r="F82" s="37">
-        <v>1260</v>
-      </c>
-      <c r="G82" s="21">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="12.75">
-      <c r="A83" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="E83" s="37">
-        <v>0</v>
-      </c>
-      <c r="F83" s="37">
-        <v>90</v>
-      </c>
-      <c r="G83" s="21">
-        <f t="shared" si="0"/>
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="12.75">
-      <c r="A84" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B84" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E84" s="37">
-        <v>0</v>
-      </c>
-      <c r="F84" s="37">
-        <v>15</v>
-      </c>
-      <c r="G84" s="21">
-        <f t="shared" si="0"/>
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="12.75">
-      <c r="A85" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B85" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="E85" s="37">
-        <v>0</v>
-      </c>
-      <c r="F85" s="37">
-        <v>60</v>
-      </c>
-      <c r="G85" s="21">
-        <f t="shared" si="0"/>
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="12.75">
-      <c r="A86" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E86" s="37">
-        <v>657</v>
-      </c>
-      <c r="F86" s="37">
-        <v>0</v>
-      </c>
-      <c r="G86" s="21">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="12.75">
-      <c r="A87" s="55">
-        <v>43829</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="37">
-        <v>30100</v>
-      </c>
-      <c r="F87" s="37">
-        <v>0</v>
-      </c>
-      <c r="G87" s="21">
-        <f t="shared" si="0"/>
-        <v>30589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="12.75">
-      <c r="A88" s="55">
-        <v>43829</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="E88" s="37">
-        <v>0</v>
-      </c>
-      <c r="F88" s="37">
-        <v>16000</v>
-      </c>
-      <c r="G88" s="21">
-        <f t="shared" si="0"/>
-        <v>14589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="12.75">
-      <c r="A89" s="55">
-        <v>43828</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E89" s="37">
-        <v>0</v>
-      </c>
-      <c r="F89" s="37">
-        <v>336</v>
-      </c>
-      <c r="G89" s="21">
-        <f t="shared" si="0"/>
-        <v>14253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="12.75">
-      <c r="A90" s="55">
-        <v>43829</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="37">
-        <v>0</v>
-      </c>
-      <c r="F90" s="37">
-        <v>9150</v>
-      </c>
-      <c r="G90" s="21">
-        <f t="shared" si="0"/>
-        <v>5103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="12.75">
-      <c r="A91" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" s="37">
-        <v>0</v>
-      </c>
-      <c r="F91" s="37">
-        <v>280</v>
-      </c>
-      <c r="G91" s="21">
-        <f t="shared" si="0"/>
-        <v>4823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="12.75">
-      <c r="A92" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="E92" s="37">
-        <v>0</v>
-      </c>
-      <c r="F92" s="37">
-        <v>1458</v>
-      </c>
-      <c r="G92" s="21">
-        <f t="shared" si="0"/>
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="12.75">
-      <c r="A93" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="37">
-        <v>0</v>
-      </c>
-      <c r="F93" s="37">
-        <v>494</v>
-      </c>
-      <c r="G93" s="21">
-        <f t="shared" si="0"/>
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="12.75">
-      <c r="A94" s="55">
-        <v>43833</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E94" s="37">
-        <v>200</v>
-      </c>
-      <c r="F94" s="37">
-        <v>0</v>
-      </c>
-      <c r="G94" s="21">
-        <f t="shared" si="0"/>
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="12.75">
-      <c r="A95" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E95" s="37">
-        <v>0</v>
-      </c>
-      <c r="F95" s="37">
-        <v>1005</v>
-      </c>
-      <c r="G95" s="21">
-        <f t="shared" si="0"/>
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="12.75">
-      <c r="A96" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="E96" s="37">
-        <v>0</v>
-      </c>
-      <c r="F96" s="37">
-        <v>1302</v>
-      </c>
-      <c r="G96" s="21">
-        <f t="shared" si="0"/>
-        <v>764</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="12.75">
-      <c r="A97" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E97" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F97" s="37">
-        <v>0</v>
-      </c>
-      <c r="G97" s="21">
-        <f t="shared" si="0"/>
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="12.75">
-      <c r="A98" s="55">
-        <v>43837</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="E98" s="37">
-        <v>0</v>
-      </c>
-      <c r="F98" s="37">
-        <v>1600</v>
-      </c>
-      <c r="G98" s="21">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="12.75">
-      <c r="A99" s="55">
-        <v>43892</v>
-      </c>
-      <c r="B99" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E99" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F99" s="37">
-        <v>0</v>
-      </c>
-      <c r="G99" s="21">
-        <f t="shared" si="0"/>
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75">
-      <c r="A100" s="55">
-        <v>43892</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E100" s="37">
-        <v>0</v>
-      </c>
-      <c r="F100" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G100" s="21">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="12.75">
-      <c r="A101" s="55">
-        <v>43893</v>
-      </c>
-      <c r="B101" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E101" s="37">
-        <v>0</v>
-      </c>
-      <c r="F101" s="37">
-        <v>67</v>
-      </c>
-      <c r="G101" s="21">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="12.75">
-      <c r="A102" s="55">
-        <v>43900</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E102" s="37">
-        <v>5000</v>
-      </c>
-      <c r="F102" s="37">
-        <v>0</v>
-      </c>
-      <c r="G102" s="21">
-        <f t="shared" si="0"/>
-        <v>5097</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="12.75">
-      <c r="A103" s="55">
-        <v>43900</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E103" s="37">
-        <v>0</v>
-      </c>
-      <c r="F103" s="37">
-        <v>5000</v>
-      </c>
-      <c r="G103" s="21">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="12.75">
-      <c r="A104" s="55">
-        <v>43916</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D104" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E104" s="37">
-        <v>8399</v>
-      </c>
-      <c r="F104" s="37">
-        <v>0</v>
-      </c>
-      <c r="G104" s="21">
-        <f t="shared" si="0"/>
-        <v>8496</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="12.75">
-      <c r="A105" s="55">
-        <v>43916</v>
-      </c>
-      <c r="B105" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D105" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="37">
-        <v>0</v>
-      </c>
-      <c r="F105" s="37">
-        <v>7200</v>
-      </c>
-      <c r="G105" s="21">
-        <f t="shared" si="0"/>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="12.75">
-      <c r="A106" s="55">
-        <v>43935</v>
-      </c>
-      <c r="B106" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E106" s="37">
-        <v>0</v>
-      </c>
-      <c r="F106" s="37">
-        <v>25</v>
-      </c>
-      <c r="G106" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="12.75">
-      <c r="A107" s="55">
-        <v>43937</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E107" s="37">
-        <v>2000</v>
-      </c>
-      <c r="F107" s="37">
-        <v>0</v>
-      </c>
-      <c r="G107" s="21">
-        <f t="shared" si="0"/>
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="12.75">
-      <c r="A108" s="55">
-        <v>43937</v>
-      </c>
-      <c r="B108" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D108" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E108" s="37">
-        <v>0</v>
-      </c>
-      <c r="F108" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G108" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="12.75">
-      <c r="A109" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="B109" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D109" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E109" s="37">
-        <v>0</v>
-      </c>
-      <c r="F109" s="37">
-        <v>760</v>
-      </c>
-      <c r="G109" s="21">
-        <f t="shared" si="0"/>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="12.75">
-      <c r="A110" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E110" s="37">
-        <v>0</v>
-      </c>
-      <c r="F110" s="37">
-        <v>3062</v>
-      </c>
-      <c r="G110" s="21">
-        <f t="shared" si="0"/>
-        <v>-2551</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="12.75">
-      <c r="A111" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E111" s="37">
-        <v>0</v>
-      </c>
-      <c r="F111" s="37">
-        <v>256</v>
-      </c>
-      <c r="G111" s="21">
-        <f t="shared" si="0"/>
-        <v>-2807</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="12.75">
-      <c r="A112" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="E112" s="37">
-        <v>0</v>
-      </c>
-      <c r="F112" s="37">
-        <v>512</v>
-      </c>
-      <c r="G112" s="21">
-        <f t="shared" si="0"/>
-        <v>-3319</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="14.25">
-      <c r="A113" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B113" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D113" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="E113" s="37">
-        <v>270</v>
-      </c>
-      <c r="F113" s="37">
-        <v>0</v>
-      </c>
-      <c r="G113" s="21">
-        <f t="shared" si="0"/>
-        <v>-3049</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="14.25">
-      <c r="A114" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B114" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" s="37">
-        <v>270</v>
-      </c>
-      <c r="F114" s="37">
-        <v>0</v>
-      </c>
-      <c r="G114" s="21">
-        <f t="shared" si="0"/>
-        <v>-2779</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="14.25">
-      <c r="A115" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B115" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E115" s="37">
-        <v>270</v>
-      </c>
-      <c r="F115" s="37">
-        <v>0</v>
-      </c>
-      <c r="G115" s="21">
-        <f t="shared" si="0"/>
-        <v>-2509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.25">
-      <c r="A116" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="E116" s="37">
-        <v>256</v>
-      </c>
-      <c r="F116" s="37">
-        <v>0</v>
-      </c>
-      <c r="G116" s="21">
-        <f t="shared" si="0"/>
-        <v>-2253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="14.25">
-      <c r="A117" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B117" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D117" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="E117" s="37">
-        <v>256</v>
-      </c>
-      <c r="F117" s="37">
-        <v>0</v>
-      </c>
-      <c r="G117" s="21">
-        <f t="shared" si="0"/>
-        <v>-1997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="14.25">
-      <c r="A118" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D118" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="E118" s="37">
-        <v>256</v>
-      </c>
-      <c r="F118" s="37">
-        <v>0</v>
-      </c>
-      <c r="G118" s="21">
-        <f t="shared" si="0"/>
-        <v>-1741</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="14.25">
-      <c r="A119" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B119" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="E119" s="37">
-        <v>256</v>
-      </c>
-      <c r="F119" s="37">
-        <v>0</v>
-      </c>
-      <c r="G119" s="21">
-        <f t="shared" si="0"/>
-        <v>-1485</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="14.25">
-      <c r="A120" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B120" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C120" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D120" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="E120" s="37">
-        <v>256</v>
-      </c>
-      <c r="F120" s="37">
-        <v>0</v>
-      </c>
-      <c r="G120" s="21">
-        <f t="shared" si="0"/>
-        <v>-1229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25">
-      <c r="A121" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B121" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D121" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="E121" s="37">
-        <v>256</v>
-      </c>
-      <c r="F121" s="37">
-        <v>0</v>
-      </c>
-      <c r="G121" s="21">
-        <f t="shared" si="0"/>
-        <v>-973</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="14.25">
-      <c r="A122" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B122" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D122" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E122" s="37">
-        <v>256</v>
-      </c>
-      <c r="F122" s="37">
-        <v>0</v>
-      </c>
-      <c r="G122" s="21">
-        <f t="shared" si="0"/>
-        <v>-717</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="14.25">
-      <c r="A123" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B123" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="E123" s="37">
-        <v>256</v>
-      </c>
-      <c r="F123" s="37">
-        <v>0</v>
-      </c>
-      <c r="G123" s="21">
-        <f t="shared" si="0"/>
-        <v>-461</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="14.25">
-      <c r="A124" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D124" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E124" s="37">
-        <v>256</v>
-      </c>
-      <c r="F124" s="37">
-        <v>0</v>
-      </c>
-      <c r="G124" s="21">
-        <f t="shared" si="0"/>
-        <v>-205</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="14.25">
-      <c r="A125" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B125" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D125" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E125" s="37">
-        <v>234</v>
-      </c>
-      <c r="F125" s="37">
-        <v>0</v>
-      </c>
-      <c r="G125" s="21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="14.25">
-      <c r="A126" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B126" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D126" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="E126" s="37">
-        <v>234</v>
-      </c>
-      <c r="F126" s="37">
-        <v>0</v>
-      </c>
-      <c r="G126" s="21">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="14.25">
-      <c r="A127" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B127" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D127" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="E127" s="37">
-        <v>234</v>
-      </c>
-      <c r="F127" s="37">
-        <v>0</v>
-      </c>
-      <c r="G127" s="21">
-        <f t="shared" si="0"/>
-        <v>497</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="14.25">
-      <c r="A128" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D128" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="E128" s="37">
-        <v>234</v>
-      </c>
-      <c r="F128" s="37">
-        <v>0</v>
-      </c>
-      <c r="G128" s="21">
-        <f t="shared" si="0"/>
-        <v>731</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="14.25">
-      <c r="A129" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B129" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D129" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="E129" s="37">
-        <v>270</v>
-      </c>
-      <c r="F129" s="37">
-        <v>0</v>
-      </c>
-      <c r="G129" s="21">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="12.75">
-      <c r="A130" s="55">
-        <v>43949</v>
-      </c>
-      <c r="B130" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D130" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="E130" s="37">
-        <v>270</v>
-      </c>
-      <c r="F130" s="37">
-        <v>0</v>
-      </c>
-      <c r="G130" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="12.75">
-      <c r="A131" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B131" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E131" s="37">
-        <v>3574</v>
-      </c>
-      <c r="F131" s="37">
-        <v>0</v>
-      </c>
-      <c r="G131" s="21">
-        <f t="shared" si="0"/>
-        <v>4845</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="12.75">
-      <c r="A132" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B132" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E132" s="37">
-        <v>0</v>
-      </c>
-      <c r="F132" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G132" s="21">
-        <f t="shared" si="0"/>
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="12.75">
-      <c r="A133" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C133" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D133" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="E133" s="37">
-        <v>0</v>
-      </c>
-      <c r="F133" s="37">
-        <v>574</v>
-      </c>
-      <c r="G133" s="21">
-        <f t="shared" si="0"/>
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="12.75">
-      <c r="A134" s="55">
-        <v>43951</v>
-      </c>
-      <c r="B134" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E134" s="37">
-        <v>0</v>
-      </c>
-      <c r="F134" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G134" s="21">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25529,6 +22293,3242 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="G16:H16"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="55">
+        <v>43717</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="16">
+        <f>1271+183+436+912+5281</f>
+        <v>8083</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
+        <f>E2</f>
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="55">
+        <v>43717</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="37">
+        <v>676</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G134" si="0">G2+E3-F3</f>
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="55">
+        <v>43717</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1375</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>7384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>436</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
+        <v>912</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>486</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="55">
+        <v>43718</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="37">
+        <v>600</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="37">
+        <v>69143</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>75293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5293</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>8850</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>61150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>41150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>23400</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1258</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="55">
+        <v>43719</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>5281</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="55">
+        <v>43725</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="37">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="55">
+        <v>43725</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>6340</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="55">
+        <v>43725</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="37">
+        <v>200</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="0"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="55">
+        <v>43732</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="37">
+        <v>10925</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="0"/>
+        <v>11912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="55">
+        <v>43732</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="37">
+        <v>6056</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="55">
+        <v>43732</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>200</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="0"/>
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="55">
+        <v>43733</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1785</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="0"/>
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75">
+      <c r="A25" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <v>1200</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>200</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0</v>
+      </c>
+      <c r="F27" s="37">
+        <v>200</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0</v>
+      </c>
+      <c r="F28" s="37">
+        <v>200</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25">
+      <c r="A29" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
+        <v>200</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25">
+      <c r="A30" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37">
+        <v>200</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25">
+      <c r="A31" s="55">
+        <v>43739</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37">
+        <v>200</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="0"/>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75">
+      <c r="A32" s="55">
+        <v>43740</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="37">
+        <v>1690</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="0"/>
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75">
+      <c r="A33" s="55">
+        <v>43740</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0</v>
+      </c>
+      <c r="F33" s="37">
+        <v>1690</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="0"/>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
+      <c r="A34" s="55">
+        <v>43745</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="37">
+        <v>200</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="0"/>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75">
+      <c r="A35" s="55">
+        <v>43746</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
+        <v>1410</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75">
+      <c r="A36" s="55">
+        <v>43752</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="0"/>
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75">
+      <c r="A37" s="55">
+        <v>43753</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75">
+      <c r="A38" s="55">
+        <v>43756</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
+        <v>200</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75">
+      <c r="A39" s="55">
+        <v>43757</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E39" s="37">
+        <v>200</v>
+      </c>
+      <c r="F39" s="37">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="55">
+        <v>43757</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
+        <v>200</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75">
+      <c r="A41" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="37">
+        <v>15107</v>
+      </c>
+      <c r="F41" s="37">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="0"/>
+        <v>15168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75">
+      <c r="A42" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="37">
+        <v>0</v>
+      </c>
+      <c r="F42" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" si="0"/>
+        <v>14168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75">
+      <c r="A43" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="37">
+        <v>2670</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" si="0"/>
+        <v>11498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75">
+      <c r="A44" s="55">
+        <v>43766</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0</v>
+      </c>
+      <c r="F44" s="37">
+        <v>2890</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="0"/>
+        <v>8608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75">
+      <c r="A45" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="37">
+        <v>0</v>
+      </c>
+      <c r="F45" s="37">
+        <v>680</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="0"/>
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75">
+      <c r="A46" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" s="37">
+        <v>0</v>
+      </c>
+      <c r="F46" s="37">
+        <v>3235</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" si="0"/>
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.75">
+      <c r="A47" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" s="37">
+        <v>0</v>
+      </c>
+      <c r="F47" s="37">
+        <v>35</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="0"/>
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75">
+      <c r="A48" s="55">
+        <v>43767</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="37">
+        <v>0</v>
+      </c>
+      <c r="F48" s="37">
+        <v>200</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="0"/>
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75">
+      <c r="A49" s="55">
+        <v>43768</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" s="37">
+        <v>0</v>
+      </c>
+      <c r="F49" s="37">
+        <v>1146</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" si="0"/>
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75">
+      <c r="A50" s="55">
+        <v>43768</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="F50" s="37">
+        <v>240</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" si="0"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75">
+      <c r="A51" s="55">
+        <v>43769</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" s="37">
+        <v>200</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" si="0"/>
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75">
+      <c r="A52" s="55">
+        <v>43774</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+      <c r="F52" s="37">
+        <v>800</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" si="0"/>
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75">
+      <c r="A53" s="55">
+        <v>43774</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0</v>
+      </c>
+      <c r="F53" s="37">
+        <v>200</v>
+      </c>
+      <c r="G53" s="21">
+        <f t="shared" si="0"/>
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75">
+      <c r="A54" s="55">
+        <v>43774</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0</v>
+      </c>
+      <c r="F54" s="37">
+        <v>1636</v>
+      </c>
+      <c r="G54" s="21">
+        <f t="shared" si="0"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.75">
+      <c r="A55" s="55">
+        <v>43781</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="0"/>
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.75">
+      <c r="A56" s="55">
+        <v>43781</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0</v>
+      </c>
+      <c r="G56" s="21">
+        <f t="shared" si="0"/>
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.75">
+      <c r="A57" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="37">
+        <v>7000</v>
+      </c>
+      <c r="F57" s="37">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21">
+        <f t="shared" si="0"/>
+        <v>8636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.75">
+      <c r="A58" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="37">
+        <v>0</v>
+      </c>
+      <c r="F58" s="37">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="21">
+        <f t="shared" si="0"/>
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.75">
+      <c r="A59" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="37">
+        <v>0</v>
+      </c>
+      <c r="F59" s="37">
+        <v>1530</v>
+      </c>
+      <c r="G59" s="21">
+        <f t="shared" si="0"/>
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.75">
+      <c r="A60" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="37">
+        <v>300</v>
+      </c>
+      <c r="F60" s="37">
+        <v>0</v>
+      </c>
+      <c r="G60" s="21">
+        <f t="shared" si="0"/>
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75">
+      <c r="A61" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0</v>
+      </c>
+      <c r="F61" s="37">
+        <v>1408</v>
+      </c>
+      <c r="G61" s="21">
+        <f t="shared" si="0"/>
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.75">
+      <c r="A62" s="55">
+        <v>43782</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E62" s="37">
+        <v>59</v>
+      </c>
+      <c r="F62" s="37">
+        <v>0</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="0"/>
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.75">
+      <c r="A63" s="55">
+        <v>43783</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="E63" s="37">
+        <v>0</v>
+      </c>
+      <c r="F63" s="37">
+        <v>300</v>
+      </c>
+      <c r="G63" s="21">
+        <f t="shared" si="0"/>
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75">
+      <c r="A64" s="55">
+        <v>43788</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="37">
+        <v>0</v>
+      </c>
+      <c r="F64" s="37">
+        <v>1500</v>
+      </c>
+      <c r="G64" s="21">
+        <f t="shared" si="0"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.75">
+      <c r="A65" s="55">
+        <v>43788</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="37">
+        <v>0</v>
+      </c>
+      <c r="F65" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G65" s="21">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.75">
+      <c r="A66" s="55">
+        <v>43796</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E66" s="37">
+        <v>12802</v>
+      </c>
+      <c r="F66" s="37">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
+        <f t="shared" si="0"/>
+        <v>13059</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.75">
+      <c r="A67" s="55">
+        <v>43796</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="37">
+        <v>0</v>
+      </c>
+      <c r="F67" s="37">
+        <v>8300</v>
+      </c>
+      <c r="G67" s="21">
+        <f t="shared" si="0"/>
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.75">
+      <c r="A68" s="55">
+        <v>43800</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="37">
+        <v>150</v>
+      </c>
+      <c r="F68" s="37">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21">
+        <f t="shared" si="0"/>
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.75">
+      <c r="A69" s="55">
+        <v>43800</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="37">
+        <v>0</v>
+      </c>
+      <c r="F69" s="37">
+        <v>4860</v>
+      </c>
+      <c r="G69" s="21">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.75">
+      <c r="A70" s="55">
+        <v>43800</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="37">
+        <v>8000</v>
+      </c>
+      <c r="F70" s="37">
+        <v>0</v>
+      </c>
+      <c r="G70" s="21">
+        <f t="shared" si="0"/>
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75">
+      <c r="A71" s="55">
+        <v>43802</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E71" s="37">
+        <v>0</v>
+      </c>
+      <c r="F71" s="37">
+        <v>40</v>
+      </c>
+      <c r="G71" s="21">
+        <f t="shared" si="0"/>
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75">
+      <c r="A72" s="55">
+        <v>43802</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="37">
+        <v>0</v>
+      </c>
+      <c r="F72" s="37">
+        <v>5200</v>
+      </c>
+      <c r="G72" s="21">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.75">
+      <c r="A73" s="55">
+        <v>43807</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="37">
+        <v>0</v>
+      </c>
+      <c r="G73" s="21">
+        <f t="shared" si="0"/>
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.75">
+      <c r="A74" s="55">
+        <v>43807</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="37">
+        <v>0</v>
+      </c>
+      <c r="F74" s="37">
+        <v>3320</v>
+      </c>
+      <c r="G74" s="21">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75">
+      <c r="A75" s="55">
+        <v>43808</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="37">
+        <v>0</v>
+      </c>
+      <c r="F75" s="37">
+        <v>0</v>
+      </c>
+      <c r="G75" s="21">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75">
+      <c r="A76" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E76" s="37">
+        <v>4242</v>
+      </c>
+      <c r="F76" s="37">
+        <v>0</v>
+      </c>
+      <c r="G76" s="21">
+        <f t="shared" si="0"/>
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75">
+      <c r="A77" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="37">
+        <v>0</v>
+      </c>
+      <c r="F77" s="37">
+        <v>243</v>
+      </c>
+      <c r="G77" s="21">
+        <f t="shared" si="0"/>
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.75">
+      <c r="A78" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="37">
+        <v>526</v>
+      </c>
+      <c r="G78" s="21">
+        <f t="shared" si="0"/>
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75">
+      <c r="A79" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" s="37">
+        <v>0</v>
+      </c>
+      <c r="F79" s="37">
+        <v>937</v>
+      </c>
+      <c r="G79" s="21">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75">
+      <c r="A80" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E80" s="37">
+        <v>0</v>
+      </c>
+      <c r="F80" s="37">
+        <v>1144</v>
+      </c>
+      <c r="G80" s="21">
+        <f t="shared" si="0"/>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75">
+      <c r="A81" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="37">
+        <v>0</v>
+      </c>
+      <c r="F81" s="37">
+        <v>624</v>
+      </c>
+      <c r="G81" s="21">
+        <f t="shared" si="0"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75">
+      <c r="A82" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="37">
+        <v>0</v>
+      </c>
+      <c r="F82" s="37">
+        <v>1260</v>
+      </c>
+      <c r="G82" s="21">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75">
+      <c r="A83" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E83" s="37">
+        <v>0</v>
+      </c>
+      <c r="F83" s="37">
+        <v>90</v>
+      </c>
+      <c r="G83" s="21">
+        <f t="shared" si="0"/>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.75">
+      <c r="A84" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="37">
+        <v>0</v>
+      </c>
+      <c r="F84" s="37">
+        <v>15</v>
+      </c>
+      <c r="G84" s="21">
+        <f t="shared" si="0"/>
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75">
+      <c r="A85" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="37">
+        <v>0</v>
+      </c>
+      <c r="F85" s="37">
+        <v>60</v>
+      </c>
+      <c r="G85" s="21">
+        <f t="shared" si="0"/>
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.75">
+      <c r="A86" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E86" s="37">
+        <v>657</v>
+      </c>
+      <c r="F86" s="37">
+        <v>0</v>
+      </c>
+      <c r="G86" s="21">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.75">
+      <c r="A87" s="55">
+        <v>43829</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" s="37">
+        <v>30100</v>
+      </c>
+      <c r="F87" s="37">
+        <v>0</v>
+      </c>
+      <c r="G87" s="21">
+        <f t="shared" si="0"/>
+        <v>30589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75">
+      <c r="A88" s="55">
+        <v>43829</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E88" s="37">
+        <v>0</v>
+      </c>
+      <c r="F88" s="37">
+        <v>16000</v>
+      </c>
+      <c r="G88" s="21">
+        <f t="shared" si="0"/>
+        <v>14589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12.75">
+      <c r="A89" s="55">
+        <v>43828</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" s="37">
+        <v>0</v>
+      </c>
+      <c r="F89" s="37">
+        <v>336</v>
+      </c>
+      <c r="G89" s="21">
+        <f t="shared" si="0"/>
+        <v>14253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12.75">
+      <c r="A90" s="55">
+        <v>43829</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="37">
+        <v>0</v>
+      </c>
+      <c r="F90" s="37">
+        <v>9150</v>
+      </c>
+      <c r="G90" s="21">
+        <f t="shared" si="0"/>
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75">
+      <c r="A91" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="37">
+        <v>0</v>
+      </c>
+      <c r="F91" s="37">
+        <v>280</v>
+      </c>
+      <c r="G91" s="21">
+        <f t="shared" si="0"/>
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.75">
+      <c r="A92" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E92" s="37">
+        <v>0</v>
+      </c>
+      <c r="F92" s="37">
+        <v>1458</v>
+      </c>
+      <c r="G92" s="21">
+        <f t="shared" si="0"/>
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12.75">
+      <c r="A93" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="37">
+        <v>0</v>
+      </c>
+      <c r="F93" s="37">
+        <v>494</v>
+      </c>
+      <c r="G93" s="21">
+        <f t="shared" si="0"/>
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.75">
+      <c r="A94" s="55">
+        <v>43833</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="37">
+        <v>200</v>
+      </c>
+      <c r="F94" s="37">
+        <v>0</v>
+      </c>
+      <c r="G94" s="21">
+        <f t="shared" si="0"/>
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12.75">
+      <c r="A95" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="37">
+        <v>0</v>
+      </c>
+      <c r="F95" s="37">
+        <v>1005</v>
+      </c>
+      <c r="G95" s="21">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12.75">
+      <c r="A96" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E96" s="37">
+        <v>0</v>
+      </c>
+      <c r="F96" s="37">
+        <v>1302</v>
+      </c>
+      <c r="G96" s="21">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12.75">
+      <c r="A97" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F97" s="37">
+        <v>0</v>
+      </c>
+      <c r="G97" s="21">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75">
+      <c r="A98" s="55">
+        <v>43837</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="37">
+        <v>0</v>
+      </c>
+      <c r="F98" s="37">
+        <v>1600</v>
+      </c>
+      <c r="G98" s="21">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75">
+      <c r="A99" s="55">
+        <v>43892</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="37">
+        <v>0</v>
+      </c>
+      <c r="G99" s="21">
+        <f t="shared" si="0"/>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75">
+      <c r="A100" s="55">
+        <v>43892</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" s="37">
+        <v>0</v>
+      </c>
+      <c r="F100" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="21">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75">
+      <c r="A101" s="55">
+        <v>43893</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E101" s="37">
+        <v>0</v>
+      </c>
+      <c r="F101" s="37">
+        <v>67</v>
+      </c>
+      <c r="G101" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75">
+      <c r="A102" s="55">
+        <v>43900</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="37">
+        <v>5000</v>
+      </c>
+      <c r="F102" s="37">
+        <v>0</v>
+      </c>
+      <c r="G102" s="21">
+        <f t="shared" si="0"/>
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.75">
+      <c r="A103" s="55">
+        <v>43900</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103" s="37">
+        <v>0</v>
+      </c>
+      <c r="F103" s="37">
+        <v>5000</v>
+      </c>
+      <c r="G103" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12.75">
+      <c r="A104" s="55">
+        <v>43916</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="37">
+        <v>8399</v>
+      </c>
+      <c r="F104" s="37">
+        <v>0</v>
+      </c>
+      <c r="G104" s="21">
+        <f t="shared" si="0"/>
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12.75">
+      <c r="A105" s="55">
+        <v>43916</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="37">
+        <v>0</v>
+      </c>
+      <c r="F105" s="37">
+        <v>7200</v>
+      </c>
+      <c r="G105" s="21">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12.75">
+      <c r="A106" s="55">
+        <v>43935</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E106" s="37">
+        <v>0</v>
+      </c>
+      <c r="F106" s="37">
+        <v>25</v>
+      </c>
+      <c r="G106" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12.75">
+      <c r="A107" s="55">
+        <v>43937</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" s="37">
+        <v>2000</v>
+      </c>
+      <c r="F107" s="37">
+        <v>0</v>
+      </c>
+      <c r="G107" s="21">
+        <f t="shared" si="0"/>
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12.75">
+      <c r="A108" s="55">
+        <v>43937</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="37">
+        <v>0</v>
+      </c>
+      <c r="F108" s="37">
+        <v>2000</v>
+      </c>
+      <c r="G108" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12.75">
+      <c r="A109" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="37">
+        <v>0</v>
+      </c>
+      <c r="F109" s="37">
+        <v>760</v>
+      </c>
+      <c r="G109" s="21">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12.75">
+      <c r="A110" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E110" s="37">
+        <v>0</v>
+      </c>
+      <c r="F110" s="37">
+        <v>3062</v>
+      </c>
+      <c r="G110" s="21">
+        <f t="shared" si="0"/>
+        <v>-2551</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75">
+      <c r="A111" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E111" s="37">
+        <v>0</v>
+      </c>
+      <c r="F111" s="37">
+        <v>256</v>
+      </c>
+      <c r="G111" s="21">
+        <f t="shared" si="0"/>
+        <v>-2807</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12.75">
+      <c r="A112" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="37">
+        <v>0</v>
+      </c>
+      <c r="F112" s="37">
+        <v>512</v>
+      </c>
+      <c r="G112" s="21">
+        <f t="shared" si="0"/>
+        <v>-3319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="14.25">
+      <c r="A113" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E113" s="37">
+        <v>270</v>
+      </c>
+      <c r="F113" s="37">
+        <v>0</v>
+      </c>
+      <c r="G113" s="21">
+        <f t="shared" si="0"/>
+        <v>-3049</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="14.25">
+      <c r="A114" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" s="37">
+        <v>270</v>
+      </c>
+      <c r="F114" s="37">
+        <v>0</v>
+      </c>
+      <c r="G114" s="21">
+        <f t="shared" si="0"/>
+        <v>-2779</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="14.25">
+      <c r="A115" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E115" s="37">
+        <v>270</v>
+      </c>
+      <c r="F115" s="37">
+        <v>0</v>
+      </c>
+      <c r="G115" s="21">
+        <f t="shared" si="0"/>
+        <v>-2509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14.25">
+      <c r="A116" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116" s="37">
+        <v>256</v>
+      </c>
+      <c r="F116" s="37">
+        <v>0</v>
+      </c>
+      <c r="G116" s="21">
+        <f t="shared" si="0"/>
+        <v>-2253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="14.25">
+      <c r="A117" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117" s="37">
+        <v>256</v>
+      </c>
+      <c r="F117" s="37">
+        <v>0</v>
+      </c>
+      <c r="G117" s="21">
+        <f t="shared" si="0"/>
+        <v>-1997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14.25">
+      <c r="A118" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E118" s="37">
+        <v>256</v>
+      </c>
+      <c r="F118" s="37">
+        <v>0</v>
+      </c>
+      <c r="G118" s="21">
+        <f t="shared" si="0"/>
+        <v>-1741</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="14.25">
+      <c r="A119" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E119" s="37">
+        <v>256</v>
+      </c>
+      <c r="F119" s="37">
+        <v>0</v>
+      </c>
+      <c r="G119" s="21">
+        <f t="shared" si="0"/>
+        <v>-1485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="14.25">
+      <c r="A120" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120" s="37">
+        <v>256</v>
+      </c>
+      <c r="F120" s="37">
+        <v>0</v>
+      </c>
+      <c r="G120" s="21">
+        <f t="shared" si="0"/>
+        <v>-1229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.25">
+      <c r="A121" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="E121" s="37">
+        <v>256</v>
+      </c>
+      <c r="F121" s="37">
+        <v>0</v>
+      </c>
+      <c r="G121" s="21">
+        <f t="shared" si="0"/>
+        <v>-973</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.25">
+      <c r="A122" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" s="37">
+        <v>256</v>
+      </c>
+      <c r="F122" s="37">
+        <v>0</v>
+      </c>
+      <c r="G122" s="21">
+        <f t="shared" si="0"/>
+        <v>-717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.25">
+      <c r="A123" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E123" s="37">
+        <v>256</v>
+      </c>
+      <c r="F123" s="37">
+        <v>0</v>
+      </c>
+      <c r="G123" s="21">
+        <f t="shared" si="0"/>
+        <v>-461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="14.25">
+      <c r="A124" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E124" s="37">
+        <v>256</v>
+      </c>
+      <c r="F124" s="37">
+        <v>0</v>
+      </c>
+      <c r="G124" s="21">
+        <f t="shared" si="0"/>
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="14.25">
+      <c r="A125" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E125" s="37">
+        <v>234</v>
+      </c>
+      <c r="F125" s="37">
+        <v>0</v>
+      </c>
+      <c r="G125" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="14.25">
+      <c r="A126" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="E126" s="37">
+        <v>234</v>
+      </c>
+      <c r="F126" s="37">
+        <v>0</v>
+      </c>
+      <c r="G126" s="21">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="14.25">
+      <c r="A127" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" s="37">
+        <v>234</v>
+      </c>
+      <c r="F127" s="37">
+        <v>0</v>
+      </c>
+      <c r="G127" s="21">
+        <f t="shared" si="0"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.25">
+      <c r="A128" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="E128" s="37">
+        <v>234</v>
+      </c>
+      <c r="F128" s="37">
+        <v>0</v>
+      </c>
+      <c r="G128" s="21">
+        <f t="shared" si="0"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25">
+      <c r="A129" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129" s="37">
+        <v>270</v>
+      </c>
+      <c r="F129" s="37">
+        <v>0</v>
+      </c>
+      <c r="G129" s="21">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12.75">
+      <c r="A130" s="55">
+        <v>43949</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E130" s="37">
+        <v>270</v>
+      </c>
+      <c r="F130" s="37">
+        <v>0</v>
+      </c>
+      <c r="G130" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12.75">
+      <c r="A131" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" s="37">
+        <v>3574</v>
+      </c>
+      <c r="F131" s="37">
+        <v>0</v>
+      </c>
+      <c r="G131" s="21">
+        <f t="shared" si="0"/>
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="12.75">
+      <c r="A132" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="37">
+        <v>0</v>
+      </c>
+      <c r="F132" s="37">
+        <v>2000</v>
+      </c>
+      <c r="G132" s="21">
+        <f t="shared" si="0"/>
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="12.75">
+      <c r="A133" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" s="37">
+        <v>0</v>
+      </c>
+      <c r="F133" s="37">
+        <v>574</v>
+      </c>
+      <c r="G133" s="21">
+        <f t="shared" si="0"/>
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="12.75">
+      <c r="A134" s="55">
+        <v>43951</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="37">
+        <v>0</v>
+      </c>
+      <c r="F134" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G134" s="21">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/YMFHL2020Q1.xlsx
+++ b/YMFHL2020Q1.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="流水帳" sheetId="1" r:id="rId1"/>
-    <sheet name="綜合損益表" sheetId="2" r:id="rId2"/>
-    <sheet name="資產負債表" sheetId="3" r:id="rId3"/>
+    <sheet name="資產負債表" sheetId="3" r:id="rId2"/>
+    <sheet name="綜合損益表" sheetId="2" r:id="rId3"/>
     <sheet name="現金流量表" sheetId="4" r:id="rId4"/>
     <sheet name="一月收支表" sheetId="10" r:id="rId5"/>
     <sheet name="二月收支表" sheetId="11" r:id="rId6"/>
@@ -18719,54 +18719,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="66"/>
-      <c r="D1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="G1" s="65" t="s">
-        <v>7</v>
-      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
+      <c r="B2" s="6">
+        <v>43644</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43735</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43830</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43921</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
@@ -18774,534 +18770,938 @@
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>36</v>
+      <c r="A6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
+      <c r="A8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>36</v>
+      <c r="A9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>47</v>
+      <c r="A10" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="A11" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>53</v>
+      <c r="A12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>61</v>
+      <c r="A13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="D23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="G23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.25">
+      <c r="A16" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="30">
+        <v>0</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="30">
+        <v>0</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.25">
+        <v>118</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25">
       <c r="A25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="19">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25">
+        <v>123</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="19">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75">
+      <c r="A27" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="30">
+        <v>0</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75">
+      <c r="A28" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75">
+      <c r="A29" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="30">
+        <v>0</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="30">
+        <v>0</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="30">
+        <v>0</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25">
+      <c r="A34" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75">
+      <c r="A35" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12.75">
+      <c r="A36" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="30">
+        <v>0</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75">
+      <c r="A37" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75">
+      <c r="A38" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="30">
+        <v>0</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25">
+      <c r="A39" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25">
+      <c r="A40" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25">
+      <c r="A41" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="38">
+        <v>0</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25">
+      <c r="A42" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="38">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25">
+      <c r="A43" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75">
+      <c r="A44" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="30">
+        <v>0</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0</v>
+      </c>
+      <c r="D44" s="30">
+        <v>0</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75">
+      <c r="A45" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12.75">
+      <c r="A46" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12.75">
+      <c r="A47" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="30">
+        <v>0</v>
+      </c>
+      <c r="C47" s="30">
+        <v>0</v>
+      </c>
+      <c r="D47" s="30">
+        <v>0</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12.75">
+      <c r="A48" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="30">
+        <v>0</v>
+      </c>
+      <c r="C48" s="30">
+        <v>0</v>
+      </c>
+      <c r="D48" s="30">
+        <v>0</v>
+      </c>
+      <c r="E48" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25">
+      <c r="A49" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="38">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12.75">
+      <c r="A50" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.75">
+      <c r="A51" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="30">
+        <v>0</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.75">
+      <c r="A52" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="24">
+        <v>0</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.25">
+      <c r="A53" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="14">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="42">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.25">
+      <c r="A56" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25">
+      <c r="A57" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="C57" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="D57" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="E57" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20333,50 +20733,54 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="67.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="65" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="D1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="G1" s="65" t="s">
+        <v>7</v>
+      </c>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
-        <v>43644</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43735</v>
-      </c>
-      <c r="D2" s="6">
-        <v>43830</v>
-      </c>
-      <c r="E2" s="6">
-        <v>43921</v>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
@@ -20384,938 +20788,534 @@
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="24">
-        <v>0</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
+      <c r="A6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="24">
-        <v>0</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="24">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>78</v>
+      <c r="A8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="24">
-        <v>0</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="24">
-        <v>0</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="24">
-        <v>0</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="A11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="24">
-        <v>0</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24">
-        <v>0</v>
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="36">
-        <v>0</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>101</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>105</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="30">
-        <v>0</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30">
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="24">
-        <v>0</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="30">
-        <v>0</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30">
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="24">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="24">
-        <v>0</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="24">
-        <v>0</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="24">
-        <v>0</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25">
+      <c r="A16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="D23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="G23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
       <c r="A24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25">
+        <v>80</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
       <c r="A25" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25">
+        <v>81</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
       <c r="A26" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="30">
-        <v>0</v>
-      </c>
-      <c r="C27" s="30">
-        <v>0</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="24">
-        <v>0</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75">
-      <c r="A29" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="24">
-        <v>0</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75">
-      <c r="A31" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="30">
-        <v>0</v>
-      </c>
-      <c r="C31" s="30">
-        <v>0</v>
-      </c>
-      <c r="D31" s="30">
-        <v>0</v>
-      </c>
-      <c r="E31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="30">
-        <v>0</v>
-      </c>
-      <c r="D32" s="30">
-        <v>0</v>
-      </c>
-      <c r="E32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="30">
-        <v>0</v>
-      </c>
-      <c r="C33" s="30">
-        <v>0</v>
-      </c>
-      <c r="D33" s="30">
-        <v>0</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25">
-      <c r="A34" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="14">
-        <v>0</v>
-      </c>
-      <c r="C34" s="14">
-        <v>0</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75">
-      <c r="A35" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="24">
-        <v>0</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="30">
-        <v>0</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0</v>
-      </c>
-      <c r="D36" s="30">
-        <v>0</v>
-      </c>
-      <c r="E36" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12.75">
-      <c r="A37" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="24">
-        <v>0</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="30">
-        <v>0</v>
-      </c>
-      <c r="C38" s="30">
-        <v>0</v>
-      </c>
-      <c r="D38" s="30">
-        <v>0</v>
-      </c>
-      <c r="E38" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25">
-      <c r="A39" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25">
-      <c r="A40" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25">
-      <c r="A41" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="38">
-        <v>0</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25">
-      <c r="A42" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="38">
-        <v>0</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0</v>
-      </c>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.25">
-      <c r="A43" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="12.75">
-      <c r="A44" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="30">
-        <v>0</v>
-      </c>
-      <c r="C44" s="30">
-        <v>0</v>
-      </c>
-      <c r="D44" s="30">
-        <v>0</v>
-      </c>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12.75">
-      <c r="A45" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="24">
-        <v>0</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0</v>
-      </c>
-      <c r="D45" s="24">
-        <v>0</v>
-      </c>
-      <c r="E45" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12.75">
-      <c r="A46" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="12.75">
-      <c r="A47" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="30">
-        <v>0</v>
-      </c>
-      <c r="C47" s="30">
-        <v>0</v>
-      </c>
-      <c r="D47" s="30">
-        <v>0</v>
-      </c>
-      <c r="E47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75">
-      <c r="A48" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="30">
-        <v>0</v>
-      </c>
-      <c r="C48" s="30">
-        <v>0</v>
-      </c>
-      <c r="D48" s="30">
-        <v>0</v>
-      </c>
-      <c r="E48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.25">
-      <c r="A49" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="38">
-        <v>0</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12.75">
-      <c r="A50" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="24">
-        <v>0</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="12.75">
-      <c r="A51" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="30">
-        <v>0</v>
-      </c>
-      <c r="C51" s="30">
-        <v>0</v>
-      </c>
-      <c r="D51" s="30">
-        <v>0</v>
-      </c>
-      <c r="E51" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12.75">
-      <c r="A52" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="24">
-        <v>0</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.25">
-      <c r="A53" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="14">
-        <v>0</v>
-      </c>
-      <c r="C53" s="14">
-        <v>0</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="42">
-        <v>0</v>
-      </c>
-      <c r="C54" s="14">
-        <v>0</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.25">
-      <c r="A56" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.25">
-      <c r="A57" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="D28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="G28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="14" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>86</v>
       </c>
+      <c r="D29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
